--- a/Database/xlsx/Fallecidos_COVID-19_Chile.xlsx
+++ b/Database/xlsx/Fallecidos_COVID-19_Chile.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C344"/>
+  <dimension ref="A1:C356"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4092,8 +4092,8 @@
       <c r="A334" t="n">
         <v>70</v>
       </c>
-      <c r="B334" t="n">
-        <v>15</v>
+      <c r="B334" t="s">
+        <v>14</v>
       </c>
       <c r="C334" t="n">
         <v>1</v>
@@ -4103,8 +4103,8 @@
       <c r="A335" t="n">
         <v>70</v>
       </c>
-      <c r="B335" t="n">
-        <v>5</v>
+      <c r="B335" t="s">
+        <v>8</v>
       </c>
       <c r="C335" t="n">
         <v>1</v>
@@ -4180,8 +4180,8 @@
       <c r="A342" t="n">
         <v>70</v>
       </c>
-      <c r="B342" t="n">
-        <v>6</v>
+      <c r="B342" t="s">
+        <v>15</v>
       </c>
       <c r="C342" t="n">
         <v>1</v>
@@ -4191,8 +4191,8 @@
       <c r="A343" t="n">
         <v>70</v>
       </c>
-      <c r="B343" t="n">
-        <v>9</v>
+      <c r="B343" t="s">
+        <v>6</v>
       </c>
       <c r="C343" t="n">
         <v>1</v>
@@ -4202,10 +4202,142 @@
       <c r="A344" t="n">
         <v>70</v>
       </c>
-      <c r="B344" t="n">
-        <v>12</v>
+      <c r="B344" t="s">
+        <v>11</v>
       </c>
       <c r="C344" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" t="n">
+        <v>71</v>
+      </c>
+      <c r="B345" t="n">
+        <v>5</v>
+      </c>
+      <c r="C345" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346" t="n">
+        <v>71</v>
+      </c>
+      <c r="B346" t="n">
+        <v>5</v>
+      </c>
+      <c r="C346" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347" t="n">
+        <v>71</v>
+      </c>
+      <c r="B347" t="s">
+        <v>4</v>
+      </c>
+      <c r="C347" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348" t="n">
+        <v>71</v>
+      </c>
+      <c r="B348" t="s">
+        <v>4</v>
+      </c>
+      <c r="C348" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349" t="n">
+        <v>71</v>
+      </c>
+      <c r="B349" t="s">
+        <v>4</v>
+      </c>
+      <c r="C349" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350" t="n">
+        <v>71</v>
+      </c>
+      <c r="B350" t="s">
+        <v>4</v>
+      </c>
+      <c r="C350" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351" t="n">
+        <v>71</v>
+      </c>
+      <c r="B351" t="s">
+        <v>4</v>
+      </c>
+      <c r="C351" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
+      <c r="A352" t="n">
+        <v>71</v>
+      </c>
+      <c r="B352" t="s">
+        <v>4</v>
+      </c>
+      <c r="C352" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353" t="n">
+        <v>71</v>
+      </c>
+      <c r="B353" t="n">
+        <v>16</v>
+      </c>
+      <c r="C353" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
+      <c r="A354" t="n">
+        <v>71</v>
+      </c>
+      <c r="B354" t="n">
+        <v>8</v>
+      </c>
+      <c r="C354" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3">
+      <c r="A355" t="n">
+        <v>71</v>
+      </c>
+      <c r="B355" t="n">
+        <v>9</v>
+      </c>
+      <c r="C355" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
+      <c r="A356" t="n">
+        <v>71</v>
+      </c>
+      <c r="B356" t="n">
+        <v>10</v>
+      </c>
+      <c r="C356" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Database/xlsx/Fallecidos_COVID-19_Chile.xlsx
+++ b/Database/xlsx/Fallecidos_COVID-19_Chile.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C356"/>
+  <dimension ref="A1:C367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4213,8 +4213,8 @@
       <c r="A345" t="n">
         <v>71</v>
       </c>
-      <c r="B345" t="n">
-        <v>5</v>
+      <c r="B345" t="s">
+        <v>8</v>
       </c>
       <c r="C345" t="n">
         <v>1</v>
@@ -4224,8 +4224,8 @@
       <c r="A346" t="n">
         <v>71</v>
       </c>
-      <c r="B346" t="n">
-        <v>5</v>
+      <c r="B346" t="s">
+        <v>8</v>
       </c>
       <c r="C346" t="n">
         <v>1</v>
@@ -4301,8 +4301,8 @@
       <c r="A353" t="n">
         <v>71</v>
       </c>
-      <c r="B353" t="n">
-        <v>16</v>
+      <c r="B353" t="s">
+        <v>10</v>
       </c>
       <c r="C353" t="n">
         <v>1</v>
@@ -4312,8 +4312,8 @@
       <c r="A354" t="n">
         <v>71</v>
       </c>
-      <c r="B354" t="n">
-        <v>8</v>
+      <c r="B354" t="s">
+        <v>5</v>
       </c>
       <c r="C354" t="n">
         <v>1</v>
@@ -4323,8 +4323,8 @@
       <c r="A355" t="n">
         <v>71</v>
       </c>
-      <c r="B355" t="n">
-        <v>9</v>
+      <c r="B355" t="s">
+        <v>6</v>
       </c>
       <c r="C355" t="n">
         <v>1</v>
@@ -4334,10 +4334,131 @@
       <c r="A356" t="n">
         <v>71</v>
       </c>
-      <c r="B356" t="n">
-        <v>10</v>
+      <c r="B356" t="s">
+        <v>12</v>
       </c>
       <c r="C356" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
+      <c r="A357" t="n">
+        <v>72</v>
+      </c>
+      <c r="B357" t="n">
+        <v>2</v>
+      </c>
+      <c r="C357" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
+      <c r="A358" t="n">
+        <v>72</v>
+      </c>
+      <c r="B358" t="n">
+        <v>5</v>
+      </c>
+      <c r="C358" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
+      <c r="A359" t="n">
+        <v>72</v>
+      </c>
+      <c r="B359" t="s">
+        <v>4</v>
+      </c>
+      <c r="C359" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
+      <c r="A360" t="n">
+        <v>72</v>
+      </c>
+      <c r="B360" t="s">
+        <v>4</v>
+      </c>
+      <c r="C360" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
+      <c r="A361" t="n">
+        <v>72</v>
+      </c>
+      <c r="B361" t="s">
+        <v>4</v>
+      </c>
+      <c r="C361" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362" t="n">
+        <v>72</v>
+      </c>
+      <c r="B362" t="s">
+        <v>4</v>
+      </c>
+      <c r="C362" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
+      <c r="A363" t="n">
+        <v>72</v>
+      </c>
+      <c r="B363" t="s">
+        <v>4</v>
+      </c>
+      <c r="C363" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3">
+      <c r="A364" t="n">
+        <v>72</v>
+      </c>
+      <c r="B364" t="s">
+        <v>4</v>
+      </c>
+      <c r="C364" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
+      <c r="A365" t="n">
+        <v>72</v>
+      </c>
+      <c r="B365" t="n">
+        <v>14</v>
+      </c>
+      <c r="C365" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3">
+      <c r="A366" t="n">
+        <v>72</v>
+      </c>
+      <c r="B366" t="n">
+        <v>12</v>
+      </c>
+      <c r="C366" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
+      <c r="A367" t="n">
+        <v>72</v>
+      </c>
+      <c r="B367" t="n">
+        <v>12</v>
+      </c>
+      <c r="C367" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Database/xlsx/Fallecidos_COVID-19_Chile.xlsx
+++ b/Database/xlsx/Fallecidos_COVID-19_Chile.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="18">
   <si>
     <t>ID_Dia</t>
   </si>
@@ -75,22 +74,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -105,26 +108,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -412,18 +424,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C367"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C389"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -437,4032 +443,4274 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="n">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" t="n">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" t="n">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" t="n">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" t="n">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" t="n">
+      <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" t="n">
+      <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" t="n">
+      <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" t="n">
+      <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" t="n">
+      <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" t="n">
+      <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" t="n">
+      <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" t="n">
+      <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" t="n">
+      <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" t="n">
+      <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" t="n">
+      <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" t="n">
+      <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" t="n">
+      <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" t="n">
+      <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" t="n">
+      <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>4</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" t="n">
+      <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" t="n">
+      <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" t="n">
+      <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" t="n">
+      <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>4</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" t="n">
+      <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" t="n">
+      <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" t="n">
+      <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" t="n">
+      <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" t="n">
+      <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" t="n">
+      <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" t="s">
         <v>4</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" t="n">
+      <c r="A32">
         <v>29</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" t="n">
+      <c r="A33">
         <v>29</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" t="n">
+      <c r="A34">
         <v>30</v>
       </c>
       <c r="B34" t="s">
         <v>4</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" t="n">
+      <c r="A35">
         <v>30</v>
       </c>
       <c r="B35" t="s">
         <v>6</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" t="n">
+      <c r="A36">
         <v>30</v>
       </c>
       <c r="B36" t="s">
         <v>6</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" t="n">
+      <c r="A37">
         <v>30</v>
       </c>
       <c r="B37" t="s">
         <v>9</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" t="n">
+      <c r="A38">
         <v>31</v>
       </c>
       <c r="B38" t="s">
         <v>4</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" t="n">
+      <c r="A39">
         <v>31</v>
       </c>
       <c r="B39" t="s">
         <v>6</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" t="n">
+      <c r="A40">
         <v>32</v>
       </c>
       <c r="B40" t="s">
         <v>4</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" t="n">
+      <c r="A41">
         <v>32</v>
       </c>
       <c r="B41" t="s">
         <v>4</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" t="n">
+      <c r="A42">
         <v>32</v>
       </c>
       <c r="B42" t="s">
         <v>10</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" t="n">
+      <c r="A43">
         <v>32</v>
       </c>
       <c r="B43" t="s">
         <v>11</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" t="n">
+      <c r="A44">
         <v>33</v>
       </c>
       <c r="B44" t="s">
         <v>4</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" t="n">
+      <c r="A45">
         <v>33</v>
       </c>
       <c r="B45" t="s">
         <v>10</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" t="n">
+      <c r="A46">
         <v>33</v>
       </c>
       <c r="B46" t="s">
         <v>6</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" t="n">
+      <c r="A47">
         <v>33</v>
       </c>
       <c r="B47" t="s">
         <v>6</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" t="n">
+      <c r="A48">
         <v>33</v>
       </c>
       <c r="B48" t="s">
         <v>11</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" t="n">
+      <c r="A49">
         <v>34</v>
       </c>
       <c r="B49" t="s">
         <v>4</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" t="n">
+      <c r="A50">
         <v>34</v>
       </c>
       <c r="B50" t="s">
         <v>10</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" t="n">
+      <c r="A51">
         <v>34</v>
       </c>
       <c r="B51" t="s">
         <v>6</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" t="n">
+      <c r="A52">
         <v>34</v>
       </c>
       <c r="B52" t="s">
         <v>6</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" t="n">
+      <c r="A53">
         <v>34</v>
       </c>
       <c r="B53" t="s">
         <v>6</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" t="n">
+      <c r="A54">
         <v>34</v>
       </c>
       <c r="B54" t="s">
         <v>6</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" t="n">
+      <c r="A55">
         <v>34</v>
       </c>
       <c r="B55" t="s">
         <v>12</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" t="n">
+      <c r="A56">
         <v>35</v>
       </c>
       <c r="B56" t="s">
         <v>10</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" t="n">
+      <c r="A57">
         <v>35</v>
       </c>
       <c r="B57" t="s">
         <v>6</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" t="n">
+      <c r="A58">
         <v>35</v>
       </c>
       <c r="B58" t="s">
         <v>12</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" t="n">
+      <c r="A59">
         <v>36</v>
       </c>
       <c r="B59" t="s">
         <v>13</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" t="n">
+      <c r="A60">
         <v>36</v>
       </c>
       <c r="B60" t="s">
         <v>4</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" t="n">
+      <c r="A61">
         <v>36</v>
       </c>
       <c r="B61" t="s">
         <v>4</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" t="n">
+      <c r="A62">
         <v>36</v>
       </c>
       <c r="B62" t="s">
         <v>7</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" t="n">
+      <c r="A63">
         <v>36</v>
       </c>
       <c r="B63" t="s">
         <v>10</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" t="n">
+      <c r="A64">
         <v>36</v>
       </c>
       <c r="B64" t="s">
         <v>9</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" t="n">
+      <c r="A65">
         <v>37</v>
       </c>
       <c r="B65" t="s">
         <v>8</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" t="n">
+      <c r="A66">
         <v>37</v>
       </c>
       <c r="B66" t="s">
         <v>4</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" t="n">
+      <c r="A67">
         <v>37</v>
       </c>
       <c r="B67" t="s">
         <v>4</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" t="n">
+      <c r="A68">
         <v>37</v>
       </c>
       <c r="B68" t="s">
         <v>6</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" t="n">
+      <c r="A69">
         <v>37</v>
       </c>
       <c r="B69" t="s">
         <v>11</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" t="n">
+      <c r="A70">
         <v>38</v>
       </c>
       <c r="B70" t="s">
         <v>4</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" t="n">
+      <c r="A71">
         <v>38</v>
       </c>
       <c r="B71" t="s">
         <v>4</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" t="n">
+      <c r="A72">
         <v>38</v>
       </c>
       <c r="B72" t="s">
         <v>4</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" t="n">
+      <c r="A73">
         <v>38</v>
       </c>
       <c r="B73" t="s">
         <v>4</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" t="n">
+      <c r="A74">
         <v>38</v>
       </c>
       <c r="B74" t="s">
         <v>4</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" t="n">
+      <c r="A75">
         <v>38</v>
       </c>
       <c r="B75" t="s">
         <v>4</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" t="n">
+      <c r="A76">
         <v>38</v>
       </c>
       <c r="B76" t="s">
         <v>4</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" t="n">
+      <c r="A77">
         <v>38</v>
       </c>
       <c r="B77" t="s">
         <v>10</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" t="n">
+      <c r="A78">
         <v>38</v>
       </c>
       <c r="B78" t="s">
         <v>6</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" t="n">
+      <c r="A79">
         <v>39</v>
       </c>
       <c r="B79" t="s">
         <v>4</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" t="n">
+      <c r="A80">
         <v>39</v>
       </c>
       <c r="B80" t="s">
         <v>4</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" t="n">
+      <c r="A81">
         <v>39</v>
       </c>
       <c r="B81" t="s">
         <v>4</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" t="n">
+      <c r="A82">
         <v>39</v>
       </c>
       <c r="B82" t="s">
         <v>4</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" t="n">
+      <c r="A83">
         <v>39</v>
       </c>
       <c r="B83" t="s">
         <v>4</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" t="n">
+      <c r="A84">
         <v>39</v>
       </c>
       <c r="B84" t="s">
         <v>4</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" t="n">
+      <c r="A85">
         <v>39</v>
       </c>
       <c r="B85" t="s">
         <v>4</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" t="n">
+      <c r="A86">
         <v>39</v>
       </c>
       <c r="B86" t="s">
         <v>4</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86">
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" t="n">
+      <c r="A87">
         <v>40</v>
       </c>
       <c r="B87" t="s">
         <v>4</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" t="n">
+      <c r="A88">
         <v>40</v>
       </c>
       <c r="B88" t="s">
         <v>4</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" t="n">
+      <c r="A89">
         <v>40</v>
       </c>
       <c r="B89" t="s">
         <v>4</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" t="n">
+      <c r="A90">
         <v>40</v>
       </c>
       <c r="B90" t="s">
         <v>7</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" t="n">
+      <c r="A91">
         <v>40</v>
       </c>
       <c r="B91" t="s">
         <v>6</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" t="n">
+      <c r="A92">
         <v>40</v>
       </c>
       <c r="B92" t="s">
         <v>12</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" t="n">
+      <c r="A93">
         <v>40</v>
       </c>
       <c r="B93" t="s">
         <v>12</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" t="n">
+      <c r="A94">
         <v>40</v>
       </c>
       <c r="B94" t="s">
         <v>12</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" t="n">
+      <c r="A95">
         <v>41</v>
       </c>
       <c r="B95" t="s">
         <v>14</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95">
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" t="n">
+      <c r="A96">
         <v>41</v>
       </c>
       <c r="B96" t="s">
         <v>4</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96">
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" t="n">
+      <c r="A97">
         <v>41</v>
       </c>
       <c r="B97" t="s">
         <v>4</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97">
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" t="n">
+      <c r="A98">
         <v>41</v>
       </c>
       <c r="B98" t="s">
         <v>4</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98">
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" t="n">
+      <c r="A99">
         <v>41</v>
       </c>
       <c r="B99" t="s">
         <v>10</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99">
         <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" t="n">
+      <c r="A100">
         <v>41</v>
       </c>
       <c r="B100" t="s">
         <v>9</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100">
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" t="n">
+      <c r="A101">
         <v>41</v>
       </c>
       <c r="B101" t="s">
         <v>11</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101">
         <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" t="n">
+      <c r="A102">
         <v>42</v>
       </c>
       <c r="B102" t="s">
         <v>4</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102">
         <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" t="n">
+      <c r="A103">
         <v>42</v>
       </c>
       <c r="B103" t="s">
         <v>11</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103">
         <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" t="n">
+      <c r="A104">
         <v>43</v>
       </c>
       <c r="B104" t="s">
         <v>4</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104">
         <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" t="n">
+      <c r="A105">
         <v>43</v>
       </c>
       <c r="B105" t="s">
         <v>4</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105">
         <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" t="n">
+      <c r="A106">
         <v>43</v>
       </c>
       <c r="B106" t="s">
         <v>4</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106">
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" t="n">
+      <c r="A107">
         <v>43</v>
       </c>
       <c r="B107" t="s">
         <v>4</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107">
         <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" t="n">
+      <c r="A108">
         <v>43</v>
       </c>
       <c r="B108" t="s">
         <v>7</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108">
         <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" t="n">
+      <c r="A109">
         <v>43</v>
       </c>
       <c r="B109" t="s">
         <v>10</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109">
         <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" t="n">
+      <c r="A110">
         <v>43</v>
       </c>
       <c r="B110" t="s">
         <v>6</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110">
         <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" t="n">
+      <c r="A111">
         <v>43</v>
       </c>
       <c r="B111" t="s">
         <v>6</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111">
         <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" t="n">
+      <c r="A112">
         <v>43</v>
       </c>
       <c r="B112" t="s">
         <v>6</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112">
         <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" t="n">
+      <c r="A113">
         <v>43</v>
       </c>
       <c r="B113" t="s">
         <v>11</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113">
         <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" t="n">
+      <c r="A114">
         <v>44</v>
       </c>
       <c r="B114" t="s">
         <v>4</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114">
         <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" t="n">
+      <c r="A115">
         <v>44</v>
       </c>
       <c r="B115" t="s">
         <v>6</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115">
         <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" t="n">
+      <c r="A116">
         <v>45</v>
       </c>
       <c r="B116" t="s">
         <v>8</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116">
         <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" t="n">
+      <c r="A117">
         <v>45</v>
       </c>
       <c r="B117" t="s">
         <v>8</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117">
         <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" t="n">
+      <c r="A118">
         <v>45</v>
       </c>
       <c r="B118" t="s">
         <v>4</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118">
         <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" t="n">
+      <c r="A119">
         <v>45</v>
       </c>
       <c r="B119" t="s">
         <v>4</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119">
         <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" t="n">
+      <c r="A120">
         <v>45</v>
       </c>
       <c r="B120" t="s">
         <v>4</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120">
         <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" t="n">
+      <c r="A121">
         <v>45</v>
       </c>
       <c r="B121" t="s">
         <v>4</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121">
         <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" t="n">
+      <c r="A122">
         <v>45</v>
       </c>
       <c r="B122" t="s">
         <v>4</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C122">
         <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" t="n">
+      <c r="A123">
         <v>45</v>
       </c>
       <c r="B123" t="s">
         <v>4</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C123">
         <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" t="n">
+      <c r="A124">
         <v>45</v>
       </c>
       <c r="B124" t="s">
         <v>4</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C124">
         <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" t="n">
+      <c r="A125">
         <v>45</v>
       </c>
       <c r="B125" t="s">
         <v>10</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C125">
         <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" t="n">
+      <c r="A126">
         <v>45</v>
       </c>
       <c r="B126" t="s">
         <v>10</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C126">
         <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" t="n">
+      <c r="A127">
         <v>46</v>
       </c>
       <c r="B127" t="s">
         <v>14</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C127">
         <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" t="n">
+      <c r="A128">
         <v>46</v>
       </c>
       <c r="B128" t="s">
         <v>4</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C128">
         <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" t="n">
+      <c r="A129">
         <v>46</v>
       </c>
       <c r="B129" t="s">
         <v>4</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C129">
         <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" t="n">
+      <c r="A130">
         <v>46</v>
       </c>
       <c r="B130" t="s">
         <v>4</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C130">
         <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" t="n">
+      <c r="A131">
         <v>46</v>
       </c>
       <c r="B131" t="s">
         <v>7</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C131">
         <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" t="n">
+      <c r="A132">
         <v>46</v>
       </c>
       <c r="B132" t="s">
         <v>7</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C132">
         <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" t="n">
+      <c r="A133">
         <v>46</v>
       </c>
       <c r="B133" t="s">
         <v>7</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C133">
         <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" t="n">
+      <c r="A134">
         <v>46</v>
       </c>
       <c r="B134" t="s">
         <v>10</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C134">
         <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" t="n">
+      <c r="A135">
         <v>46</v>
       </c>
       <c r="B135" t="s">
         <v>5</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C135">
         <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" t="n">
+      <c r="A136">
         <v>46</v>
       </c>
       <c r="B136" t="s">
         <v>6</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C136">
         <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" t="n">
+      <c r="A137">
         <v>46</v>
       </c>
       <c r="B137" t="s">
         <v>12</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C137">
         <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" t="n">
+      <c r="A138">
         <v>47</v>
       </c>
       <c r="B138" t="s">
         <v>4</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C138">
         <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139" t="n">
+      <c r="A139">
         <v>47</v>
       </c>
       <c r="B139" t="s">
         <v>4</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C139">
         <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" t="n">
+      <c r="A140">
         <v>47</v>
       </c>
       <c r="B140" t="s">
         <v>4</v>
       </c>
-      <c r="C140" t="n">
+      <c r="C140">
         <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" t="n">
+      <c r="A141">
         <v>47</v>
       </c>
       <c r="B141" t="s">
         <v>4</v>
       </c>
-      <c r="C141" t="n">
+      <c r="C141">
         <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142" t="n">
+      <c r="A142">
         <v>47</v>
       </c>
       <c r="B142" t="s">
         <v>4</v>
       </c>
-      <c r="C142" t="n">
+      <c r="C142">
         <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:3">
-      <c r="A143" t="n">
+      <c r="A143">
         <v>47</v>
       </c>
       <c r="B143" t="s">
         <v>4</v>
       </c>
-      <c r="C143" t="n">
+      <c r="C143">
         <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:3">
-      <c r="A144" t="n">
+      <c r="A144">
         <v>47</v>
       </c>
       <c r="B144" t="s">
         <v>4</v>
       </c>
-      <c r="C144" t="n">
+      <c r="C144">
         <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" t="n">
+      <c r="A145">
         <v>47</v>
       </c>
       <c r="B145" t="s">
         <v>7</v>
       </c>
-      <c r="C145" t="n">
+      <c r="C145">
         <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:3">
-      <c r="A146" t="n">
+      <c r="A146">
         <v>47</v>
       </c>
       <c r="B146" t="s">
         <v>10</v>
       </c>
-      <c r="C146" t="n">
+      <c r="C146">
         <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:3">
-      <c r="A147" t="n">
+      <c r="A147">
         <v>47</v>
       </c>
       <c r="B147" t="s">
         <v>6</v>
       </c>
-      <c r="C147" t="n">
+      <c r="C147">
         <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:3">
-      <c r="A148" t="n">
+      <c r="A148">
         <v>48</v>
       </c>
       <c r="B148" t="s">
         <v>8</v>
       </c>
-      <c r="C148" t="n">
+      <c r="C148">
         <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:3">
-      <c r="A149" t="n">
+      <c r="A149">
         <v>48</v>
       </c>
       <c r="B149" t="s">
         <v>4</v>
       </c>
-      <c r="C149" t="n">
+      <c r="C149">
         <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:3">
-      <c r="A150" t="n">
+      <c r="A150">
         <v>48</v>
       </c>
       <c r="B150" t="s">
         <v>4</v>
       </c>
-      <c r="C150" t="n">
+      <c r="C150">
         <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:3">
-      <c r="A151" t="n">
+      <c r="A151">
         <v>48</v>
       </c>
       <c r="B151" t="s">
         <v>4</v>
       </c>
-      <c r="C151" t="n">
+      <c r="C151">
         <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:3">
-      <c r="A152" t="n">
+      <c r="A152">
         <v>48</v>
       </c>
       <c r="B152" t="s">
         <v>4</v>
       </c>
-      <c r="C152" t="n">
+      <c r="C152">
         <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:3">
-      <c r="A153" t="n">
+      <c r="A153">
         <v>48</v>
       </c>
       <c r="B153" t="s">
         <v>4</v>
       </c>
-      <c r="C153" t="n">
+      <c r="C153">
         <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:3">
-      <c r="A154" t="n">
+      <c r="A154">
         <v>48</v>
       </c>
       <c r="B154" t="s">
         <v>10</v>
       </c>
-      <c r="C154" t="n">
+      <c r="C154">
         <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:3">
-      <c r="A155" t="n">
+      <c r="A155">
         <v>49</v>
       </c>
       <c r="B155" t="s">
         <v>4</v>
       </c>
-      <c r="C155" t="n">
+      <c r="C155">
         <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:3">
-      <c r="A156" t="n">
+      <c r="A156">
         <v>49</v>
       </c>
       <c r="B156" t="s">
         <v>4</v>
       </c>
-      <c r="C156" t="n">
+      <c r="C156">
         <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:3">
-      <c r="A157" t="n">
+      <c r="A157">
         <v>49</v>
       </c>
       <c r="B157" t="s">
         <v>4</v>
       </c>
-      <c r="C157" t="n">
+      <c r="C157">
         <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:3">
-      <c r="A158" t="n">
+      <c r="A158">
         <v>49</v>
       </c>
       <c r="B158" t="s">
         <v>4</v>
       </c>
-      <c r="C158" t="n">
+      <c r="C158">
         <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:3">
-      <c r="A159" t="n">
+      <c r="A159">
         <v>49</v>
       </c>
       <c r="B159" t="s">
         <v>7</v>
       </c>
-      <c r="C159" t="n">
+      <c r="C159">
         <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:3">
-      <c r="A160" t="n">
+      <c r="A160">
         <v>49</v>
       </c>
       <c r="B160" t="s">
         <v>7</v>
       </c>
-      <c r="C160" t="n">
+      <c r="C160">
         <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:3">
-      <c r="A161" t="n">
+      <c r="A161">
         <v>50</v>
       </c>
       <c r="B161" t="s">
         <v>8</v>
       </c>
-      <c r="C161" t="n">
+      <c r="C161">
         <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:3">
-      <c r="A162" t="n">
+      <c r="A162">
         <v>50</v>
       </c>
       <c r="B162" t="s">
         <v>4</v>
       </c>
-      <c r="C162" t="n">
+      <c r="C162">
         <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:3">
-      <c r="A163" t="n">
+      <c r="A163">
         <v>50</v>
       </c>
       <c r="B163" t="s">
         <v>4</v>
       </c>
-      <c r="C163" t="n">
+      <c r="C163">
         <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:3">
-      <c r="A164" t="n">
+      <c r="A164">
         <v>50</v>
       </c>
       <c r="B164" t="s">
         <v>15</v>
       </c>
-      <c r="C164" t="n">
+      <c r="C164">
         <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:3">
-      <c r="A165" t="n">
+      <c r="A165">
         <v>50</v>
       </c>
       <c r="B165" t="s">
         <v>5</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C165">
         <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:3">
-      <c r="A166" t="n">
+      <c r="A166">
         <v>50</v>
       </c>
       <c r="B166" t="s">
         <v>6</v>
       </c>
-      <c r="C166" t="n">
+      <c r="C166">
         <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:3">
-      <c r="A167" t="n">
+      <c r="A167">
         <v>50</v>
       </c>
       <c r="B167" t="s">
         <v>6</v>
       </c>
-      <c r="C167" t="n">
+      <c r="C167">
         <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:3">
-      <c r="A168" t="n">
+      <c r="A168">
         <v>50</v>
       </c>
       <c r="B168" t="s">
         <v>11</v>
       </c>
-      <c r="C168" t="n">
+      <c r="C168">
         <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:3">
-      <c r="A169" t="n">
+      <c r="A169">
         <v>51</v>
       </c>
       <c r="B169" t="s">
         <v>13</v>
       </c>
-      <c r="C169" t="n">
+      <c r="C169">
         <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:3">
-      <c r="A170" t="n">
+      <c r="A170">
         <v>51</v>
       </c>
       <c r="B170" t="s">
         <v>8</v>
       </c>
-      <c r="C170" t="n">
+      <c r="C170">
         <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:3">
-      <c r="A171" t="n">
+      <c r="A171">
         <v>51</v>
       </c>
       <c r="B171" t="s">
         <v>4</v>
       </c>
-      <c r="C171" t="n">
+      <c r="C171">
         <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:3">
-      <c r="A172" t="n">
+      <c r="A172">
         <v>51</v>
       </c>
       <c r="B172" t="s">
         <v>4</v>
       </c>
-      <c r="C172" t="n">
+      <c r="C172">
         <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:3">
-      <c r="A173" t="n">
+      <c r="A173">
         <v>51</v>
       </c>
       <c r="B173" t="s">
         <v>4</v>
       </c>
-      <c r="C173" t="n">
+      <c r="C173">
         <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:3">
-      <c r="A174" t="n">
+      <c r="A174">
         <v>51</v>
       </c>
       <c r="B174" t="s">
         <v>4</v>
       </c>
-      <c r="C174" t="n">
+      <c r="C174">
         <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:3">
-      <c r="A175" t="n">
+      <c r="A175">
         <v>51</v>
       </c>
       <c r="B175" t="s">
         <v>4</v>
       </c>
-      <c r="C175" t="n">
+      <c r="C175">
         <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:3">
-      <c r="A176" t="n">
+      <c r="A176">
         <v>51</v>
       </c>
       <c r="B176" t="s">
         <v>4</v>
       </c>
-      <c r="C176" t="n">
+      <c r="C176">
         <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:3">
-      <c r="A177" t="n">
+      <c r="A177">
         <v>51</v>
       </c>
       <c r="B177" t="s">
         <v>4</v>
       </c>
-      <c r="C177" t="n">
+      <c r="C177">
         <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:3">
-      <c r="A178" t="n">
+      <c r="A178">
         <v>51</v>
       </c>
       <c r="B178" t="s">
         <v>4</v>
       </c>
-      <c r="C178" t="n">
+      <c r="C178">
         <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:3">
-      <c r="A179" t="n">
+      <c r="A179">
         <v>51</v>
       </c>
       <c r="B179" t="s">
         <v>4</v>
       </c>
-      <c r="C179" t="n">
+      <c r="C179">
         <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:3">
-      <c r="A180" t="n">
+      <c r="A180">
         <v>51</v>
       </c>
       <c r="B180" t="s">
         <v>5</v>
       </c>
-      <c r="C180" t="n">
+      <c r="C180">
         <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:3">
-      <c r="A181" t="n">
+      <c r="A181">
         <v>51</v>
       </c>
       <c r="B181" t="s">
         <v>6</v>
       </c>
-      <c r="C181" t="n">
+      <c r="C181">
         <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:3">
-      <c r="A182" t="n">
+      <c r="A182">
         <v>52</v>
       </c>
       <c r="B182" t="s">
         <v>4</v>
       </c>
-      <c r="C182" t="n">
+      <c r="C182">
         <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:3">
-      <c r="A183" t="n">
+      <c r="A183">
         <v>52</v>
       </c>
       <c r="B183" t="s">
         <v>4</v>
       </c>
-      <c r="C183" t="n">
+      <c r="C183">
         <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:3">
-      <c r="A184" t="n">
+      <c r="A184">
         <v>52</v>
       </c>
       <c r="B184" t="s">
         <v>4</v>
       </c>
-      <c r="C184" t="n">
+      <c r="C184">
         <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:3">
-      <c r="A185" t="n">
+      <c r="A185">
         <v>52</v>
       </c>
       <c r="B185" t="s">
         <v>4</v>
       </c>
-      <c r="C185" t="n">
+      <c r="C185">
         <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:3">
-      <c r="A186" t="n">
+      <c r="A186">
         <v>52</v>
       </c>
       <c r="B186" t="s">
         <v>4</v>
       </c>
-      <c r="C186" t="n">
+      <c r="C186">
         <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:3">
-      <c r="A187" t="n">
+      <c r="A187">
         <v>52</v>
       </c>
       <c r="B187" t="s">
         <v>4</v>
       </c>
-      <c r="C187" t="n">
+      <c r="C187">
         <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:3">
-      <c r="A188" t="n">
+      <c r="A188">
         <v>52</v>
       </c>
       <c r="B188" t="s">
         <v>4</v>
       </c>
-      <c r="C188" t="n">
+      <c r="C188">
         <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:3">
-      <c r="A189" t="n">
+      <c r="A189">
         <v>52</v>
       </c>
       <c r="B189" t="s">
         <v>12</v>
       </c>
-      <c r="C189" t="n">
+      <c r="C189">
         <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:3">
-      <c r="A190" t="n">
+      <c r="A190">
         <v>53</v>
       </c>
       <c r="B190" t="s">
         <v>14</v>
       </c>
-      <c r="C190" t="n">
+      <c r="C190">
         <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:3">
-      <c r="A191" t="n">
+      <c r="A191">
         <v>53</v>
       </c>
       <c r="B191" t="s">
         <v>8</v>
       </c>
-      <c r="C191" t="n">
+      <c r="C191">
         <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:3">
-      <c r="A192" t="n">
+      <c r="A192">
         <v>53</v>
       </c>
       <c r="B192" t="s">
         <v>4</v>
       </c>
-      <c r="C192" t="n">
+      <c r="C192">
         <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:3">
-      <c r="A193" t="n">
+      <c r="A193">
         <v>53</v>
       </c>
       <c r="B193" t="s">
         <v>10</v>
       </c>
-      <c r="C193" t="n">
+      <c r="C193">
         <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:3">
-      <c r="A194" t="n">
+      <c r="A194">
         <v>53</v>
       </c>
       <c r="B194" t="s">
         <v>12</v>
       </c>
-      <c r="C194" t="n">
+      <c r="C194">
         <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:3">
-      <c r="A195" t="n">
+      <c r="A195">
         <v>53</v>
       </c>
       <c r="B195" t="s">
         <v>11</v>
       </c>
-      <c r="C195" t="n">
+      <c r="C195">
         <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:3">
-      <c r="A196" t="n">
+      <c r="A196">
         <v>54</v>
       </c>
       <c r="B196" t="s">
         <v>16</v>
       </c>
-      <c r="C196" t="n">
+      <c r="C196">
         <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:3">
-      <c r="A197" t="n">
+      <c r="A197">
         <v>54</v>
       </c>
       <c r="B197" t="s">
         <v>13</v>
       </c>
-      <c r="C197" t="n">
+      <c r="C197">
         <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:3">
-      <c r="A198" t="n">
+      <c r="A198">
         <v>54</v>
       </c>
       <c r="B198" t="s">
         <v>8</v>
       </c>
-      <c r="C198" t="n">
+      <c r="C198">
         <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:3">
-      <c r="A199" t="n">
+      <c r="A199">
         <v>54</v>
       </c>
       <c r="B199" t="s">
         <v>4</v>
       </c>
-      <c r="C199" t="n">
+      <c r="C199">
         <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:3">
-      <c r="A200" t="n">
+      <c r="A200">
         <v>54</v>
       </c>
       <c r="B200" t="s">
         <v>4</v>
       </c>
-      <c r="C200" t="n">
+      <c r="C200">
         <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:3">
-      <c r="A201" t="n">
+      <c r="A201">
         <v>54</v>
       </c>
       <c r="B201" t="s">
         <v>4</v>
       </c>
-      <c r="C201" t="n">
+      <c r="C201">
         <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:3">
-      <c r="A202" t="n">
+      <c r="A202">
         <v>54</v>
       </c>
       <c r="B202" t="s">
         <v>6</v>
       </c>
-      <c r="C202" t="n">
+      <c r="C202">
         <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:3">
-      <c r="A203" t="n">
+      <c r="A203">
         <v>55</v>
       </c>
       <c r="B203" t="s">
         <v>13</v>
       </c>
-      <c r="C203" t="n">
+      <c r="C203">
         <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:3">
-      <c r="A204" t="n">
+      <c r="A204">
         <v>55</v>
       </c>
       <c r="B204" t="s">
         <v>4</v>
       </c>
-      <c r="C204" t="n">
+      <c r="C204">
         <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:3">
-      <c r="A205" t="n">
+      <c r="A205">
         <v>55</v>
       </c>
       <c r="B205" t="s">
         <v>4</v>
       </c>
-      <c r="C205" t="n">
+      <c r="C205">
         <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:3">
-      <c r="A206" t="n">
+      <c r="A206">
         <v>55</v>
       </c>
       <c r="B206" t="s">
         <v>7</v>
       </c>
-      <c r="C206" t="n">
+      <c r="C206">
         <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:3">
-      <c r="A207" t="n">
+      <c r="A207">
         <v>55</v>
       </c>
       <c r="B207" t="s">
         <v>5</v>
       </c>
-      <c r="C207" t="n">
+      <c r="C207">
         <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:3">
-      <c r="A208" t="n">
+      <c r="A208">
         <v>55</v>
       </c>
       <c r="B208" t="s">
         <v>6</v>
       </c>
-      <c r="C208" t="n">
+      <c r="C208">
         <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:3">
-      <c r="A209" t="n">
+      <c r="A209">
         <v>55</v>
       </c>
       <c r="B209" t="s">
         <v>6</v>
       </c>
-      <c r="C209" t="n">
+      <c r="C209">
         <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:3">
-      <c r="A210" t="n">
+      <c r="A210">
         <v>55</v>
       </c>
       <c r="B210" t="s">
         <v>11</v>
       </c>
-      <c r="C210" t="n">
+      <c r="C210">
         <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:3">
-      <c r="A211" t="n">
+      <c r="A211">
         <v>56</v>
       </c>
       <c r="B211" t="s">
         <v>4</v>
       </c>
-      <c r="C211" t="n">
+      <c r="C211">
         <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:3">
-      <c r="A212" t="n">
+      <c r="A212">
         <v>56</v>
       </c>
       <c r="B212" t="s">
         <v>4</v>
       </c>
-      <c r="C212" t="n">
+      <c r="C212">
         <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:3">
-      <c r="A213" t="n">
+      <c r="A213">
         <v>56</v>
       </c>
       <c r="B213" t="s">
         <v>4</v>
       </c>
-      <c r="C213" t="n">
+      <c r="C213">
         <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:3">
-      <c r="A214" t="n">
+      <c r="A214">
         <v>56</v>
       </c>
       <c r="B214" t="s">
         <v>4</v>
       </c>
-      <c r="C214" t="n">
+      <c r="C214">
         <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:3">
-      <c r="A215" t="n">
+      <c r="A215">
         <v>56</v>
       </c>
       <c r="B215" t="s">
         <v>7</v>
       </c>
-      <c r="C215" t="n">
+      <c r="C215">
         <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:3">
-      <c r="A216" t="n">
+      <c r="A216">
         <v>56</v>
       </c>
       <c r="B216" t="s">
         <v>6</v>
       </c>
-      <c r="C216" t="n">
+      <c r="C216">
         <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:3">
-      <c r="A217" t="n">
+      <c r="A217">
         <v>56</v>
       </c>
       <c r="B217" t="s">
         <v>6</v>
       </c>
-      <c r="C217" t="n">
+      <c r="C217">
         <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:3">
-      <c r="A218" t="n">
+      <c r="A218">
         <v>56</v>
       </c>
       <c r="B218" t="s">
         <v>6</v>
       </c>
-      <c r="C218" t="n">
+      <c r="C218">
         <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:3">
-      <c r="A219" t="n">
+      <c r="A219">
         <v>56</v>
       </c>
       <c r="B219" t="s">
         <v>11</v>
       </c>
-      <c r="C219" t="n">
+      <c r="C219">
         <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:3">
-      <c r="A220" t="n">
+      <c r="A220">
         <v>57</v>
       </c>
       <c r="B220" t="s">
         <v>8</v>
       </c>
-      <c r="C220" t="n">
+      <c r="C220">
         <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:3">
-      <c r="A221" t="n">
+      <c r="A221">
         <v>57</v>
       </c>
       <c r="B221" t="s">
         <v>4</v>
       </c>
-      <c r="C221" t="n">
+      <c r="C221">
         <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:3">
-      <c r="A222" t="n">
+      <c r="A222">
         <v>57</v>
       </c>
       <c r="B222" t="s">
         <v>4</v>
       </c>
-      <c r="C222" t="n">
+      <c r="C222">
         <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:3">
-      <c r="A223" t="n">
+      <c r="A223">
         <v>57</v>
       </c>
       <c r="B223" t="s">
         <v>4</v>
       </c>
-      <c r="C223" t="n">
+      <c r="C223">
         <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:3">
-      <c r="A224" t="n">
+      <c r="A224">
         <v>57</v>
       </c>
       <c r="B224" t="s">
         <v>4</v>
       </c>
-      <c r="C224" t="n">
+      <c r="C224">
         <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:3">
-      <c r="A225" t="n">
+      <c r="A225">
         <v>57</v>
       </c>
       <c r="B225" t="s">
         <v>4</v>
       </c>
-      <c r="C225" t="n">
+      <c r="C225">
         <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:3">
-      <c r="A226" t="n">
+      <c r="A226">
         <v>57</v>
       </c>
       <c r="B226" t="s">
         <v>5</v>
       </c>
-      <c r="C226" t="n">
+      <c r="C226">
         <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:3">
-      <c r="A227" t="n">
+      <c r="A227">
         <v>57</v>
       </c>
       <c r="B227" t="s">
         <v>9</v>
       </c>
-      <c r="C227" t="n">
+      <c r="C227">
         <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:3">
-      <c r="A228" t="n">
+      <c r="A228">
         <v>57</v>
       </c>
       <c r="B228" t="s">
         <v>12</v>
       </c>
-      <c r="C228" t="n">
+      <c r="C228">
         <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:3">
-      <c r="A229" t="n">
+      <c r="A229">
         <v>58</v>
       </c>
       <c r="B229" t="s">
         <v>14</v>
       </c>
-      <c r="C229" t="n">
+      <c r="C229">
         <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:3">
-      <c r="A230" t="n">
+      <c r="A230">
         <v>58</v>
       </c>
       <c r="B230" t="s">
         <v>8</v>
       </c>
-      <c r="C230" t="n">
+      <c r="C230">
         <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:3">
-      <c r="A231" t="n">
+      <c r="A231">
         <v>58</v>
       </c>
       <c r="B231" t="s">
         <v>8</v>
       </c>
-      <c r="C231" t="n">
+      <c r="C231">
         <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:3">
-      <c r="A232" t="n">
+      <c r="A232">
         <v>58</v>
       </c>
       <c r="B232" t="s">
         <v>4</v>
       </c>
-      <c r="C232" t="n">
+      <c r="C232">
         <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:3">
-      <c r="A233" t="n">
+      <c r="A233">
         <v>58</v>
       </c>
       <c r="B233" t="s">
         <v>4</v>
       </c>
-      <c r="C233" t="n">
+      <c r="C233">
         <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:3">
-      <c r="A234" t="n">
+      <c r="A234">
         <v>58</v>
       </c>
       <c r="B234" t="s">
         <v>4</v>
       </c>
-      <c r="C234" t="n">
+      <c r="C234">
         <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:3">
-      <c r="A235" t="n">
+      <c r="A235">
         <v>58</v>
       </c>
       <c r="B235" t="s">
         <v>4</v>
       </c>
-      <c r="C235" t="n">
+      <c r="C235">
         <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:3">
-      <c r="A236" t="n">
+      <c r="A236">
         <v>58</v>
       </c>
       <c r="B236" t="s">
         <v>7</v>
       </c>
-      <c r="C236" t="n">
+      <c r="C236">
         <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:3">
-      <c r="A237" t="n">
+      <c r="A237">
         <v>58</v>
       </c>
       <c r="B237" t="s">
         <v>11</v>
       </c>
-      <c r="C237" t="n">
+      <c r="C237">
         <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:3">
-      <c r="A238" t="n">
+      <c r="A238">
         <v>59</v>
       </c>
       <c r="B238" t="s">
         <v>13</v>
       </c>
-      <c r="C238" t="n">
+      <c r="C238">
         <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:3">
-      <c r="A239" t="n">
+      <c r="A239">
         <v>59</v>
       </c>
       <c r="B239" t="s">
         <v>4</v>
       </c>
-      <c r="C239" t="n">
+      <c r="C239">
         <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:3">
-      <c r="A240" t="n">
+      <c r="A240">
         <v>59</v>
       </c>
       <c r="B240" t="s">
         <v>4</v>
       </c>
-      <c r="C240" t="n">
+      <c r="C240">
         <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:3">
-      <c r="A241" t="n">
+      <c r="A241">
         <v>59</v>
       </c>
       <c r="B241" t="s">
         <v>4</v>
       </c>
-      <c r="C241" t="n">
+      <c r="C241">
         <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:3">
-      <c r="A242" t="n">
+      <c r="A242">
         <v>59</v>
       </c>
       <c r="B242" t="s">
         <v>4</v>
       </c>
-      <c r="C242" t="n">
+      <c r="C242">
         <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:3">
-      <c r="A243" t="n">
+      <c r="A243">
         <v>59</v>
       </c>
       <c r="B243" t="s">
         <v>4</v>
       </c>
-      <c r="C243" t="n">
+      <c r="C243">
         <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:3">
-      <c r="A244" t="n">
+      <c r="A244">
         <v>59</v>
       </c>
       <c r="B244" t="s">
         <v>4</v>
       </c>
-      <c r="C244" t="n">
+      <c r="C244">
         <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:3">
-      <c r="A245" t="n">
+      <c r="A245">
         <v>59</v>
       </c>
       <c r="B245" t="s">
         <v>6</v>
       </c>
-      <c r="C245" t="n">
+      <c r="C245">
         <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:3">
-      <c r="A246" t="n">
+      <c r="A246">
         <v>59</v>
       </c>
       <c r="B246" t="s">
         <v>6</v>
       </c>
-      <c r="C246" t="n">
+      <c r="C246">
         <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:3">
-      <c r="A247" t="n">
+      <c r="A247">
         <v>59</v>
       </c>
       <c r="B247" t="s">
         <v>6</v>
       </c>
-      <c r="C247" t="n">
+      <c r="C247">
         <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:3">
-      <c r="A248" t="n">
+      <c r="A248">
         <v>59</v>
       </c>
       <c r="B248" t="s">
         <v>12</v>
       </c>
-      <c r="C248" t="n">
+      <c r="C248">
         <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:3">
-      <c r="A249" t="n">
+      <c r="A249">
         <v>60</v>
       </c>
       <c r="B249" t="s">
         <v>13</v>
       </c>
-      <c r="C249" t="n">
+      <c r="C249">
         <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:3">
-      <c r="A250" t="n">
+      <c r="A250">
         <v>60</v>
       </c>
       <c r="B250" t="s">
         <v>13</v>
       </c>
-      <c r="C250" t="n">
+      <c r="C250">
         <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:3">
-      <c r="A251" t="n">
+      <c r="A251">
         <v>60</v>
       </c>
       <c r="B251" t="s">
         <v>4</v>
       </c>
-      <c r="C251" t="n">
+      <c r="C251">
         <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:3">
-      <c r="A252" t="n">
+      <c r="A252">
         <v>60</v>
       </c>
       <c r="B252" t="s">
         <v>4</v>
       </c>
-      <c r="C252" t="n">
+      <c r="C252">
         <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:3">
-      <c r="A253" t="n">
+      <c r="A253">
         <v>60</v>
       </c>
       <c r="B253" t="s">
         <v>4</v>
       </c>
-      <c r="C253" t="n">
+      <c r="C253">
         <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:3">
-      <c r="A254" t="n">
+      <c r="A254">
         <v>60</v>
       </c>
       <c r="B254" t="s">
         <v>4</v>
       </c>
-      <c r="C254" t="n">
+      <c r="C254">
         <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:3">
-      <c r="A255" t="n">
+      <c r="A255">
         <v>60</v>
       </c>
       <c r="B255" t="s">
         <v>6</v>
       </c>
-      <c r="C255" t="n">
+      <c r="C255">
         <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:3">
-      <c r="A256" t="n">
+      <c r="A256">
         <v>61</v>
       </c>
       <c r="B256" t="s">
         <v>8</v>
       </c>
-      <c r="C256" t="n">
+      <c r="C256">
         <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:3">
-      <c r="A257" t="n">
+      <c r="A257">
         <v>61</v>
       </c>
       <c r="B257" t="s">
         <v>4</v>
       </c>
-      <c r="C257" t="n">
+      <c r="C257">
         <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:3">
-      <c r="A258" t="n">
+      <c r="A258">
         <v>61</v>
       </c>
       <c r="B258" t="s">
         <v>4</v>
       </c>
-      <c r="C258" t="n">
+      <c r="C258">
         <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:3">
-      <c r="A259" t="n">
+      <c r="A259">
         <v>61</v>
       </c>
       <c r="B259" t="s">
         <v>4</v>
       </c>
-      <c r="C259" t="n">
+      <c r="C259">
         <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:3">
-      <c r="A260" t="n">
+      <c r="A260">
         <v>61</v>
       </c>
       <c r="B260" t="s">
         <v>4</v>
       </c>
-      <c r="C260" t="n">
+      <c r="C260">
         <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:3">
-      <c r="A261" t="n">
+      <c r="A261">
         <v>61</v>
       </c>
       <c r="B261" t="s">
         <v>4</v>
       </c>
-      <c r="C261" t="n">
+      <c r="C261">
         <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:3">
-      <c r="A262" t="n">
+      <c r="A262">
         <v>61</v>
       </c>
       <c r="B262" t="s">
         <v>4</v>
       </c>
-      <c r="C262" t="n">
+      <c r="C262">
         <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:3">
-      <c r="A263" t="n">
+      <c r="A263">
         <v>61</v>
       </c>
       <c r="B263" t="s">
         <v>4</v>
       </c>
-      <c r="C263" t="n">
+      <c r="C263">
         <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:3">
-      <c r="A264" t="n">
+      <c r="A264">
         <v>61</v>
       </c>
       <c r="B264" t="s">
         <v>4</v>
       </c>
-      <c r="C264" t="n">
+      <c r="C264">
         <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:3">
-      <c r="A265" t="n">
+      <c r="A265">
         <v>61</v>
       </c>
       <c r="B265" t="s">
         <v>15</v>
       </c>
-      <c r="C265" t="n">
+      <c r="C265">
         <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:3">
-      <c r="A266" t="n">
+      <c r="A266">
         <v>61</v>
       </c>
       <c r="B266" t="s">
         <v>15</v>
       </c>
-      <c r="C266" t="n">
+      <c r="C266">
         <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:3">
-      <c r="A267" t="n">
+      <c r="A267">
         <v>61</v>
       </c>
       <c r="B267" t="s">
         <v>10</v>
       </c>
-      <c r="C267" t="n">
+      <c r="C267">
         <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:3">
-      <c r="A268" t="n">
+      <c r="A268">
         <v>61</v>
       </c>
       <c r="B268" t="s">
         <v>10</v>
       </c>
-      <c r="C268" t="n">
+      <c r="C268">
         <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:3">
-      <c r="A269" t="n">
+      <c r="A269">
         <v>62</v>
       </c>
       <c r="B269" t="s">
         <v>4</v>
       </c>
-      <c r="C269" t="n">
+      <c r="C269">
         <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:3">
-      <c r="A270" t="n">
+      <c r="A270">
         <v>62</v>
       </c>
       <c r="B270" t="s">
         <v>4</v>
       </c>
-      <c r="C270" t="n">
+      <c r="C270">
         <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:3">
-      <c r="A271" t="n">
+      <c r="A271">
         <v>62</v>
       </c>
       <c r="B271" t="s">
         <v>4</v>
       </c>
-      <c r="C271" t="n">
+      <c r="C271">
         <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:3">
-      <c r="A272" t="n">
+      <c r="A272">
         <v>62</v>
       </c>
       <c r="B272" t="s">
         <v>4</v>
       </c>
-      <c r="C272" t="n">
+      <c r="C272">
         <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:3">
-      <c r="A273" t="n">
+      <c r="A273">
         <v>62</v>
       </c>
       <c r="B273" t="s">
         <v>4</v>
       </c>
-      <c r="C273" t="n">
+      <c r="C273">
         <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:3">
-      <c r="A274" t="n">
+      <c r="A274">
         <v>62</v>
       </c>
       <c r="B274" t="s">
         <v>4</v>
       </c>
-      <c r="C274" t="n">
+      <c r="C274">
         <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:3">
-      <c r="A275" t="n">
+      <c r="A275">
         <v>62</v>
       </c>
       <c r="B275" t="s">
         <v>4</v>
       </c>
-      <c r="C275" t="n">
+      <c r="C275">
         <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:3">
-      <c r="A276" t="n">
+      <c r="A276">
         <v>62</v>
       </c>
       <c r="B276" t="s">
         <v>4</v>
       </c>
-      <c r="C276" t="n">
+      <c r="C276">
         <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:3">
-      <c r="A277" t="n">
+      <c r="A277">
         <v>62</v>
       </c>
       <c r="B277" t="s">
         <v>4</v>
       </c>
-      <c r="C277" t="n">
+      <c r="C277">
         <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:3">
-      <c r="A278" t="n">
+      <c r="A278">
         <v>62</v>
       </c>
       <c r="B278" t="s">
         <v>4</v>
       </c>
-      <c r="C278" t="n">
+      <c r="C278">
         <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:3">
-      <c r="A279" t="n">
+      <c r="A279">
         <v>62</v>
       </c>
       <c r="B279" t="s">
         <v>4</v>
       </c>
-      <c r="C279" t="n">
+      <c r="C279">
         <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:3">
-      <c r="A280" t="n">
+      <c r="A280">
         <v>62</v>
       </c>
       <c r="B280" t="s">
         <v>4</v>
       </c>
-      <c r="C280" t="n">
+      <c r="C280">
         <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:3">
-      <c r="A281" t="n">
+      <c r="A281">
         <v>62</v>
       </c>
       <c r="B281" t="s">
         <v>4</v>
       </c>
-      <c r="C281" t="n">
+      <c r="C281">
         <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:3">
-      <c r="A282" t="n">
+      <c r="A282">
         <v>63</v>
       </c>
       <c r="B282" t="s">
         <v>4</v>
       </c>
-      <c r="C282" t="n">
+      <c r="C282">
         <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:3">
-      <c r="A283" t="n">
+      <c r="A283">
         <v>63</v>
       </c>
       <c r="B283" t="s">
         <v>4</v>
       </c>
-      <c r="C283" t="n">
+      <c r="C283">
         <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:3">
-      <c r="A284" t="n">
+      <c r="A284">
         <v>63</v>
       </c>
       <c r="B284" t="s">
         <v>4</v>
       </c>
-      <c r="C284" t="n">
+      <c r="C284">
         <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:3">
-      <c r="A285" t="n">
+      <c r="A285">
         <v>63</v>
       </c>
       <c r="B285" t="s">
         <v>4</v>
       </c>
-      <c r="C285" t="n">
+      <c r="C285">
         <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:3">
-      <c r="A286" t="n">
+      <c r="A286">
         <v>63</v>
       </c>
       <c r="B286" t="s">
         <v>4</v>
       </c>
-      <c r="C286" t="n">
+      <c r="C286">
         <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:3">
-      <c r="A287" t="n">
+      <c r="A287">
         <v>63</v>
       </c>
       <c r="B287" t="s">
         <v>4</v>
       </c>
-      <c r="C287" t="n">
+      <c r="C287">
         <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:3">
-      <c r="A288" t="n">
+      <c r="A288">
         <v>63</v>
       </c>
       <c r="B288" t="s">
         <v>4</v>
       </c>
-      <c r="C288" t="n">
+      <c r="C288">
         <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:3">
-      <c r="A289" t="n">
+      <c r="A289">
         <v>63</v>
       </c>
       <c r="B289" t="s">
         <v>4</v>
       </c>
-      <c r="C289" t="n">
+      <c r="C289">
         <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:3">
-      <c r="A290" t="n">
+      <c r="A290">
         <v>63</v>
       </c>
       <c r="B290" t="s">
         <v>10</v>
       </c>
-      <c r="C290" t="n">
+      <c r="C290">
         <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:3">
-      <c r="A291" t="n">
+      <c r="A291">
         <v>63</v>
       </c>
       <c r="B291" t="s">
         <v>5</v>
       </c>
-      <c r="C291" t="n">
+      <c r="C291">
         <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:3">
-      <c r="A292" t="n">
+      <c r="A292">
         <v>64</v>
       </c>
       <c r="B292" t="s">
         <v>8</v>
       </c>
-      <c r="C292" t="n">
+      <c r="C292">
         <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:3">
-      <c r="A293" t="n">
+      <c r="A293">
         <v>64</v>
       </c>
       <c r="B293" t="s">
         <v>8</v>
       </c>
-      <c r="C293" t="n">
+      <c r="C293">
         <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:3">
-      <c r="A294" t="n">
+      <c r="A294">
         <v>64</v>
       </c>
       <c r="B294" t="s">
         <v>4</v>
       </c>
-      <c r="C294" t="n">
+      <c r="C294">
         <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:3">
-      <c r="A295" t="n">
+      <c r="A295">
         <v>64</v>
       </c>
       <c r="B295" t="s">
         <v>4</v>
       </c>
-      <c r="C295" t="n">
+      <c r="C295">
         <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:3">
-      <c r="A296" t="n">
+      <c r="A296">
         <v>64</v>
       </c>
       <c r="B296" t="s">
         <v>4</v>
       </c>
-      <c r="C296" t="n">
+      <c r="C296">
         <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:3">
-      <c r="A297" t="n">
+      <c r="A297">
         <v>65</v>
       </c>
       <c r="B297" t="s">
         <v>14</v>
       </c>
-      <c r="C297" t="n">
+      <c r="C297">
         <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:3">
-      <c r="A298" t="n">
+      <c r="A298">
         <v>65</v>
       </c>
       <c r="B298" t="s">
         <v>8</v>
       </c>
-      <c r="C298" t="n">
+      <c r="C298">
         <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:3">
-      <c r="A299" t="n">
+      <c r="A299">
         <v>65</v>
       </c>
       <c r="B299" t="s">
         <v>4</v>
       </c>
-      <c r="C299" t="n">
+      <c r="C299">
         <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:3">
-      <c r="A300" t="n">
+      <c r="A300">
         <v>65</v>
       </c>
       <c r="B300" t="s">
         <v>4</v>
       </c>
-      <c r="C300" t="n">
+      <c r="C300">
         <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:3">
-      <c r="A301" t="n">
+      <c r="A301">
         <v>65</v>
       </c>
       <c r="B301" t="s">
         <v>4</v>
       </c>
-      <c r="C301" t="n">
+      <c r="C301">
         <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:3">
-      <c r="A302" t="n">
+      <c r="A302">
         <v>65</v>
       </c>
       <c r="B302" t="s">
         <v>4</v>
       </c>
-      <c r="C302" t="n">
+      <c r="C302">
         <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:3">
-      <c r="A303" t="n">
+      <c r="A303">
         <v>66</v>
       </c>
       <c r="B303" t="s">
         <v>14</v>
       </c>
-      <c r="C303" t="n">
+      <c r="C303">
         <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:3">
-      <c r="A304" t="n">
+      <c r="A304">
         <v>66</v>
       </c>
       <c r="B304" t="s">
         <v>8</v>
       </c>
-      <c r="C304" t="n">
+      <c r="C304">
         <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:3">
-      <c r="A305" t="n">
+      <c r="A305">
         <v>66</v>
       </c>
       <c r="B305" t="s">
         <v>4</v>
       </c>
-      <c r="C305" t="n">
+      <c r="C305">
         <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:3">
-      <c r="A306" t="n">
+      <c r="A306">
         <v>66</v>
       </c>
       <c r="B306" t="s">
         <v>4</v>
       </c>
-      <c r="C306" t="n">
+      <c r="C306">
         <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:3">
-      <c r="A307" t="n">
+      <c r="A307">
         <v>67</v>
       </c>
       <c r="B307" t="s">
         <v>13</v>
       </c>
-      <c r="C307" t="n">
+      <c r="C307">
         <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:3">
-      <c r="A308" t="n">
+      <c r="A308">
         <v>67</v>
       </c>
       <c r="B308" t="s">
         <v>13</v>
       </c>
-      <c r="C308" t="n">
+      <c r="C308">
         <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:3">
-      <c r="A309" t="n">
+      <c r="A309">
         <v>67</v>
       </c>
       <c r="B309" t="s">
         <v>8</v>
       </c>
-      <c r="C309" t="n">
+      <c r="C309">
         <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:3">
-      <c r="A310" t="n">
+      <c r="A310">
         <v>67</v>
       </c>
       <c r="B310" t="s">
         <v>4</v>
       </c>
-      <c r="C310" t="n">
+      <c r="C310">
         <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:3">
-      <c r="A311" t="n">
+      <c r="A311">
         <v>67</v>
       </c>
       <c r="B311" t="s">
         <v>4</v>
       </c>
-      <c r="C311" t="n">
+      <c r="C311">
         <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:3">
-      <c r="A312" t="n">
+      <c r="A312">
         <v>67</v>
       </c>
       <c r="B312" t="s">
         <v>4</v>
       </c>
-      <c r="C312" t="n">
+      <c r="C312">
         <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:3">
-      <c r="A313" t="n">
+      <c r="A313">
         <v>67</v>
       </c>
       <c r="B313" t="s">
         <v>4</v>
       </c>
-      <c r="C313" t="n">
+      <c r="C313">
         <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:3">
-      <c r="A314" t="n">
+      <c r="A314">
         <v>67</v>
       </c>
       <c r="B314" t="s">
         <v>4</v>
       </c>
-      <c r="C314" t="n">
+      <c r="C314">
         <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:3">
-      <c r="A315" t="n">
+      <c r="A315">
         <v>67</v>
       </c>
       <c r="B315" t="s">
         <v>10</v>
       </c>
-      <c r="C315" t="n">
+      <c r="C315">
         <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:3">
-      <c r="A316" t="n">
+      <c r="A316">
         <v>68</v>
       </c>
       <c r="B316" t="s">
         <v>13</v>
       </c>
-      <c r="C316" t="n">
+      <c r="C316">
         <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:3">
-      <c r="A317" t="n">
+      <c r="A317">
         <v>68</v>
       </c>
       <c r="B317" t="s">
         <v>8</v>
       </c>
-      <c r="C317" t="n">
+      <c r="C317">
         <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:3">
-      <c r="A318" t="n">
+      <c r="A318">
         <v>68</v>
       </c>
       <c r="B318" t="s">
         <v>4</v>
       </c>
-      <c r="C318" t="n">
+      <c r="C318">
         <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:3">
-      <c r="A319" t="n">
+      <c r="A319">
         <v>68</v>
       </c>
       <c r="B319" t="s">
         <v>4</v>
       </c>
-      <c r="C319" t="n">
+      <c r="C319">
         <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:3">
-      <c r="A320" t="n">
+      <c r="A320">
         <v>68</v>
       </c>
       <c r="B320" t="s">
         <v>4</v>
       </c>
-      <c r="C320" t="n">
+      <c r="C320">
         <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:3">
-      <c r="A321" t="n">
+      <c r="A321">
         <v>68</v>
       </c>
       <c r="B321" t="s">
         <v>4</v>
       </c>
-      <c r="C321" t="n">
+      <c r="C321">
         <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:3">
-      <c r="A322" t="n">
+      <c r="A322">
         <v>68</v>
       </c>
       <c r="B322" t="s">
         <v>4</v>
       </c>
-      <c r="C322" t="n">
+      <c r="C322">
         <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:3">
-      <c r="A323" t="n">
+      <c r="A323">
         <v>68</v>
       </c>
       <c r="B323" t="s">
         <v>4</v>
       </c>
-      <c r="C323" t="n">
+      <c r="C323">
         <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:3">
-      <c r="A324" t="n">
+      <c r="A324">
         <v>68</v>
       </c>
       <c r="B324" t="s">
         <v>7</v>
       </c>
-      <c r="C324" t="n">
+      <c r="C324">
         <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:3">
-      <c r="A325" t="n">
+      <c r="A325">
         <v>68</v>
       </c>
       <c r="B325" t="s">
         <v>9</v>
       </c>
-      <c r="C325" t="n">
+      <c r="C325">
         <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:3">
-      <c r="A326" t="n">
+      <c r="A326">
         <v>69</v>
       </c>
       <c r="B326" t="s">
         <v>17</v>
       </c>
-      <c r="C326" t="n">
+      <c r="C326">
         <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:3">
-      <c r="A327" t="n">
+      <c r="A327">
         <v>69</v>
       </c>
       <c r="B327" t="s">
         <v>8</v>
       </c>
-      <c r="C327" t="n">
+      <c r="C327">
         <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:3">
-      <c r="A328" t="n">
+      <c r="A328">
         <v>69</v>
       </c>
       <c r="B328" t="s">
         <v>4</v>
       </c>
-      <c r="C328" t="n">
+      <c r="C328">
         <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:3">
-      <c r="A329" t="n">
+      <c r="A329">
         <v>69</v>
       </c>
       <c r="B329" t="s">
         <v>4</v>
       </c>
-      <c r="C329" t="n">
+      <c r="C329">
         <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:3">
-      <c r="A330" t="n">
+      <c r="A330">
         <v>69</v>
       </c>
       <c r="B330" t="s">
         <v>4</v>
       </c>
-      <c r="C330" t="n">
+      <c r="C330">
         <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:3">
-      <c r="A331" t="n">
+      <c r="A331">
         <v>69</v>
       </c>
       <c r="B331" t="s">
         <v>6</v>
       </c>
-      <c r="C331" t="n">
+      <c r="C331">
         <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:3">
-      <c r="A332" t="n">
+      <c r="A332">
         <v>69</v>
       </c>
       <c r="B332" t="s">
         <v>11</v>
       </c>
-      <c r="C332" t="n">
+      <c r="C332">
         <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:3">
-      <c r="A333" t="n">
+      <c r="A333">
         <v>69</v>
       </c>
       <c r="B333" t="s">
         <v>11</v>
       </c>
-      <c r="C333" t="n">
+      <c r="C333">
         <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:3">
-      <c r="A334" t="n">
+      <c r="A334">
         <v>70</v>
       </c>
       <c r="B334" t="s">
         <v>14</v>
       </c>
-      <c r="C334" t="n">
+      <c r="C334">
         <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:3">
-      <c r="A335" t="n">
+      <c r="A335">
         <v>70</v>
       </c>
       <c r="B335" t="s">
         <v>8</v>
       </c>
-      <c r="C335" t="n">
+      <c r="C335">
         <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:3">
-      <c r="A336" t="n">
+      <c r="A336">
         <v>70</v>
       </c>
       <c r="B336" t="s">
         <v>4</v>
       </c>
-      <c r="C336" t="n">
+      <c r="C336">
         <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:3">
-      <c r="A337" t="n">
+      <c r="A337">
         <v>70</v>
       </c>
       <c r="B337" t="s">
         <v>4</v>
       </c>
-      <c r="C337" t="n">
+      <c r="C337">
         <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:3">
-      <c r="A338" t="n">
+      <c r="A338">
         <v>70</v>
       </c>
       <c r="B338" t="s">
         <v>4</v>
       </c>
-      <c r="C338" t="n">
+      <c r="C338">
         <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:3">
-      <c r="A339" t="n">
+      <c r="A339">
         <v>70</v>
       </c>
       <c r="B339" t="s">
         <v>4</v>
       </c>
-      <c r="C339" t="n">
+      <c r="C339">
         <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:3">
-      <c r="A340" t="n">
+      <c r="A340">
         <v>70</v>
       </c>
       <c r="B340" t="s">
         <v>4</v>
       </c>
-      <c r="C340" t="n">
+      <c r="C340">
         <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:3">
-      <c r="A341" t="n">
+      <c r="A341">
         <v>70</v>
       </c>
       <c r="B341" t="s">
         <v>4</v>
       </c>
-      <c r="C341" t="n">
+      <c r="C341">
         <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:3">
-      <c r="A342" t="n">
+      <c r="A342">
         <v>70</v>
       </c>
       <c r="B342" t="s">
         <v>15</v>
       </c>
-      <c r="C342" t="n">
+      <c r="C342">
         <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:3">
-      <c r="A343" t="n">
+      <c r="A343">
         <v>70</v>
       </c>
       <c r="B343" t="s">
         <v>6</v>
       </c>
-      <c r="C343" t="n">
+      <c r="C343">
         <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:3">
-      <c r="A344" t="n">
+      <c r="A344">
         <v>70</v>
       </c>
       <c r="B344" t="s">
         <v>11</v>
       </c>
-      <c r="C344" t="n">
+      <c r="C344">
         <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:3">
-      <c r="A345" t="n">
+      <c r="A345">
         <v>71</v>
       </c>
       <c r="B345" t="s">
         <v>8</v>
       </c>
-      <c r="C345" t="n">
+      <c r="C345">
         <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:3">
-      <c r="A346" t="n">
+      <c r="A346">
         <v>71</v>
       </c>
       <c r="B346" t="s">
         <v>8</v>
       </c>
-      <c r="C346" t="n">
+      <c r="C346">
         <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:3">
-      <c r="A347" t="n">
+      <c r="A347">
         <v>71</v>
       </c>
       <c r="B347" t="s">
         <v>4</v>
       </c>
-      <c r="C347" t="n">
+      <c r="C347">
         <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:3">
-      <c r="A348" t="n">
+      <c r="A348">
         <v>71</v>
       </c>
       <c r="B348" t="s">
         <v>4</v>
       </c>
-      <c r="C348" t="n">
+      <c r="C348">
         <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:3">
-      <c r="A349" t="n">
+      <c r="A349">
         <v>71</v>
       </c>
       <c r="B349" t="s">
         <v>4</v>
       </c>
-      <c r="C349" t="n">
+      <c r="C349">
         <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:3">
-      <c r="A350" t="n">
+      <c r="A350">
         <v>71</v>
       </c>
       <c r="B350" t="s">
         <v>4</v>
       </c>
-      <c r="C350" t="n">
+      <c r="C350">
         <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:3">
-      <c r="A351" t="n">
+      <c r="A351">
         <v>71</v>
       </c>
       <c r="B351" t="s">
         <v>4</v>
       </c>
-      <c r="C351" t="n">
+      <c r="C351">
         <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:3">
-      <c r="A352" t="n">
+      <c r="A352">
         <v>71</v>
       </c>
       <c r="B352" t="s">
         <v>4</v>
       </c>
-      <c r="C352" t="n">
+      <c r="C352">
         <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:3">
-      <c r="A353" t="n">
+      <c r="A353">
         <v>71</v>
       </c>
       <c r="B353" t="s">
         <v>10</v>
       </c>
-      <c r="C353" t="n">
+      <c r="C353">
         <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:3">
-      <c r="A354" t="n">
+      <c r="A354">
         <v>71</v>
       </c>
       <c r="B354" t="s">
         <v>5</v>
       </c>
-      <c r="C354" t="n">
+      <c r="C354">
         <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:3">
-      <c r="A355" t="n">
+      <c r="A355">
         <v>71</v>
       </c>
       <c r="B355" t="s">
         <v>6</v>
       </c>
-      <c r="C355" t="n">
+      <c r="C355">
         <v>1</v>
       </c>
     </row>
     <row r="356" spans="1:3">
-      <c r="A356" t="n">
+      <c r="A356">
         <v>71</v>
       </c>
       <c r="B356" t="s">
         <v>12</v>
       </c>
-      <c r="C356" t="n">
+      <c r="C356">
         <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:3">
-      <c r="A357" t="n">
+      <c r="A357">
         <v>72</v>
       </c>
-      <c r="B357" t="n">
-        <v>2</v>
-      </c>
-      <c r="C357" t="n">
+      <c r="B357" t="s">
+        <v>13</v>
+      </c>
+      <c r="C357">
         <v>1</v>
       </c>
     </row>
     <row r="358" spans="1:3">
-      <c r="A358" t="n">
+      <c r="A358">
         <v>72</v>
       </c>
-      <c r="B358" t="n">
+      <c r="B358" t="s">
+        <v>8</v>
+      </c>
+      <c r="C358">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
+      <c r="A359">
+        <v>72</v>
+      </c>
+      <c r="B359" t="s">
+        <v>4</v>
+      </c>
+      <c r="C359">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
+      <c r="A360">
+        <v>72</v>
+      </c>
+      <c r="B360" t="s">
+        <v>4</v>
+      </c>
+      <c r="C360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
+      <c r="A361">
+        <v>72</v>
+      </c>
+      <c r="B361" t="s">
+        <v>4</v>
+      </c>
+      <c r="C361">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362">
+        <v>72</v>
+      </c>
+      <c r="B362" t="s">
+        <v>4</v>
+      </c>
+      <c r="C362">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
+      <c r="A363">
+        <v>72</v>
+      </c>
+      <c r="B363" t="s">
+        <v>4</v>
+      </c>
+      <c r="C363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3">
+      <c r="A364">
+        <v>72</v>
+      </c>
+      <c r="B364" t="s">
+        <v>4</v>
+      </c>
+      <c r="C364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
+      <c r="A365">
+        <v>72</v>
+      </c>
+      <c r="B365" t="s">
+        <v>9</v>
+      </c>
+      <c r="C365">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3">
+      <c r="A366">
+        <v>72</v>
+      </c>
+      <c r="B366" t="s">
+        <v>11</v>
+      </c>
+      <c r="C366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
+      <c r="A367">
+        <v>72</v>
+      </c>
+      <c r="B367" t="s">
+        <v>11</v>
+      </c>
+      <c r="C367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
+      <c r="A368">
+        <v>73</v>
+      </c>
+      <c r="B368">
         <v>5</v>
       </c>
-      <c r="C358" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="359" spans="1:3">
-      <c r="A359" t="n">
-        <v>72</v>
-      </c>
-      <c r="B359" t="s">
-        <v>4</v>
-      </c>
-      <c r="C359" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="360" spans="1:3">
-      <c r="A360" t="n">
-        <v>72</v>
-      </c>
-      <c r="B360" t="s">
-        <v>4</v>
-      </c>
-      <c r="C360" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3">
-      <c r="A361" t="n">
-        <v>72</v>
-      </c>
-      <c r="B361" t="s">
-        <v>4</v>
-      </c>
-      <c r="C361" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3">
-      <c r="A362" t="n">
-        <v>72</v>
-      </c>
-      <c r="B362" t="s">
-        <v>4</v>
-      </c>
-      <c r="C362" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="363" spans="1:3">
-      <c r="A363" t="n">
-        <v>72</v>
-      </c>
-      <c r="B363" t="s">
-        <v>4</v>
-      </c>
-      <c r="C363" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3">
-      <c r="A364" t="n">
-        <v>72</v>
-      </c>
-      <c r="B364" t="s">
-        <v>4</v>
-      </c>
-      <c r="C364" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3">
-      <c r="A365" t="n">
-        <v>72</v>
-      </c>
-      <c r="B365" t="n">
-        <v>14</v>
-      </c>
-      <c r="C365" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="366" spans="1:3">
-      <c r="A366" t="n">
-        <v>72</v>
-      </c>
-      <c r="B366" t="n">
-        <v>12</v>
-      </c>
-      <c r="C366" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="367" spans="1:3">
-      <c r="A367" t="n">
-        <v>72</v>
-      </c>
-      <c r="B367" t="n">
-        <v>12</v>
-      </c>
-      <c r="C367" t="n">
+      <c r="C368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
+      <c r="A369">
+        <v>73</v>
+      </c>
+      <c r="B369" t="s">
+        <v>4</v>
+      </c>
+      <c r="C369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
+      <c r="A370">
+        <v>73</v>
+      </c>
+      <c r="B370" t="s">
+        <v>4</v>
+      </c>
+      <c r="C370">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
+      <c r="A371">
+        <v>73</v>
+      </c>
+      <c r="B371" t="s">
+        <v>4</v>
+      </c>
+      <c r="C371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
+      <c r="A372">
+        <v>73</v>
+      </c>
+      <c r="B372" t="s">
+        <v>4</v>
+      </c>
+      <c r="C372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
+      <c r="A373">
+        <v>73</v>
+      </c>
+      <c r="B373" t="s">
+        <v>4</v>
+      </c>
+      <c r="C373">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
+      <c r="A374">
+        <v>73</v>
+      </c>
+      <c r="B374" t="s">
+        <v>4</v>
+      </c>
+      <c r="C374">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
+      <c r="A375">
+        <v>73</v>
+      </c>
+      <c r="B375" t="s">
+        <v>4</v>
+      </c>
+      <c r="C375">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
+      <c r="A376">
+        <v>73</v>
+      </c>
+      <c r="B376" t="s">
+        <v>4</v>
+      </c>
+      <c r="C376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
+      <c r="A377">
+        <v>73</v>
+      </c>
+      <c r="B377" t="s">
+        <v>4</v>
+      </c>
+      <c r="C377">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
+      <c r="A378">
+        <v>73</v>
+      </c>
+      <c r="B378" t="s">
+        <v>4</v>
+      </c>
+      <c r="C378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
+      <c r="A379">
+        <v>73</v>
+      </c>
+      <c r="B379" t="s">
+        <v>4</v>
+      </c>
+      <c r="C379">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3">
+      <c r="A380">
+        <v>73</v>
+      </c>
+      <c r="B380" t="s">
+        <v>4</v>
+      </c>
+      <c r="C380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
+      <c r="A381">
+        <v>73</v>
+      </c>
+      <c r="B381" t="s">
+        <v>4</v>
+      </c>
+      <c r="C381">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
+      <c r="A382">
+        <v>73</v>
+      </c>
+      <c r="B382" t="s">
+        <v>4</v>
+      </c>
+      <c r="C382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
+      <c r="A383">
+        <v>73</v>
+      </c>
+      <c r="B383" t="s">
+        <v>4</v>
+      </c>
+      <c r="C383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3">
+      <c r="A384">
+        <v>73</v>
+      </c>
+      <c r="B384" t="s">
+        <v>4</v>
+      </c>
+      <c r="C384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
+      <c r="A385">
+        <v>73</v>
+      </c>
+      <c r="B385" t="s">
+        <v>4</v>
+      </c>
+      <c r="C385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3">
+      <c r="A386">
+        <v>73</v>
+      </c>
+      <c r="B386" t="s">
+        <v>4</v>
+      </c>
+      <c r="C386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3">
+      <c r="A387">
+        <v>73</v>
+      </c>
+      <c r="B387">
+        <v>16</v>
+      </c>
+      <c r="C387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3">
+      <c r="A388">
+        <v>73</v>
+      </c>
+      <c r="B388">
+        <v>9</v>
+      </c>
+      <c r="C388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3">
+      <c r="A389">
+        <v>73</v>
+      </c>
+      <c r="B389">
+        <v>9</v>
+      </c>
+      <c r="C389">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Database/xlsx/Fallecidos_COVID-19_Chile.xlsx
+++ b/Database/xlsx/Fallecidos_COVID-19_Chile.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
   <si>
     <t>ID_Dia</t>
   </si>
@@ -74,26 +75,22 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -108,35 +105,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -424,12 +412,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C389"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C437"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -443,4274 +437,4802 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8">
+      <c r="A8" t="n">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9">
+      <c r="A9" t="n">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10">
+      <c r="A10" t="n">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11">
+      <c r="A11" t="n">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12">
+      <c r="A12" t="n">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13">
+      <c r="A13" t="n">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14">
+      <c r="A14" t="n">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15">
+      <c r="A15" t="n">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16">
+      <c r="A16" t="n">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17">
+      <c r="A17" t="n">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18">
+      <c r="A18" t="n">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19">
+      <c r="A19" t="n">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20">
+      <c r="A20" t="n">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21">
+      <c r="A21" t="n">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>4</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22">
+      <c r="A22" t="n">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23">
+      <c r="A23" t="n">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24">
+      <c r="A24" t="n">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25">
+      <c r="A25" t="n">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>4</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26">
+      <c r="A26" t="n">
         <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27">
+      <c r="A27" t="n">
         <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28">
+      <c r="A28" t="n">
         <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29">
+      <c r="A29" t="n">
         <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30">
+      <c r="A30" t="n">
         <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31">
+      <c r="A31" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
         <v>4</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32">
+      <c r="A32" t="n">
         <v>29</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33">
+      <c r="A33" t="n">
         <v>29</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34">
+      <c r="A34" t="n">
         <v>30</v>
       </c>
       <c r="B34" t="s">
         <v>4</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35">
+      <c r="A35" t="n">
         <v>30</v>
       </c>
       <c r="B35" t="s">
         <v>6</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36">
+      <c r="A36" t="n">
         <v>30</v>
       </c>
       <c r="B36" t="s">
         <v>6</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37">
+      <c r="A37" t="n">
         <v>30</v>
       </c>
       <c r="B37" t="s">
         <v>9</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38">
+      <c r="A38" t="n">
         <v>31</v>
       </c>
       <c r="B38" t="s">
         <v>4</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39">
+      <c r="A39" t="n">
         <v>31</v>
       </c>
       <c r="B39" t="s">
         <v>6</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40">
+      <c r="A40" t="n">
         <v>32</v>
       </c>
       <c r="B40" t="s">
         <v>4</v>
       </c>
-      <c r="C40">
+      <c r="C40" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41">
+      <c r="A41" t="n">
         <v>32</v>
       </c>
       <c r="B41" t="s">
         <v>4</v>
       </c>
-      <c r="C41">
+      <c r="C41" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42">
+      <c r="A42" t="n">
         <v>32</v>
       </c>
       <c r="B42" t="s">
         <v>10</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43">
+      <c r="A43" t="n">
         <v>32</v>
       </c>
       <c r="B43" t="s">
         <v>11</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44">
+      <c r="A44" t="n">
         <v>33</v>
       </c>
       <c r="B44" t="s">
         <v>4</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45">
+      <c r="A45" t="n">
         <v>33</v>
       </c>
       <c r="B45" t="s">
         <v>10</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46">
+      <c r="A46" t="n">
         <v>33</v>
       </c>
       <c r="B46" t="s">
         <v>6</v>
       </c>
-      <c r="C46">
+      <c r="C46" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47">
+      <c r="A47" t="n">
         <v>33</v>
       </c>
       <c r="B47" t="s">
         <v>6</v>
       </c>
-      <c r="C47">
+      <c r="C47" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48">
+      <c r="A48" t="n">
         <v>33</v>
       </c>
       <c r="B48" t="s">
         <v>11</v>
       </c>
-      <c r="C48">
+      <c r="C48" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49">
+      <c r="A49" t="n">
         <v>34</v>
       </c>
       <c r="B49" t="s">
         <v>4</v>
       </c>
-      <c r="C49">
+      <c r="C49" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50">
+      <c r="A50" t="n">
         <v>34</v>
       </c>
       <c r="B50" t="s">
         <v>10</v>
       </c>
-      <c r="C50">
+      <c r="C50" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51">
+      <c r="A51" t="n">
         <v>34</v>
       </c>
       <c r="B51" t="s">
         <v>6</v>
       </c>
-      <c r="C51">
+      <c r="C51" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52">
+      <c r="A52" t="n">
         <v>34</v>
       </c>
       <c r="B52" t="s">
         <v>6</v>
       </c>
-      <c r="C52">
+      <c r="C52" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53">
+      <c r="A53" t="n">
         <v>34</v>
       </c>
       <c r="B53" t="s">
         <v>6</v>
       </c>
-      <c r="C53">
+      <c r="C53" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54">
+      <c r="A54" t="n">
         <v>34</v>
       </c>
       <c r="B54" t="s">
         <v>6</v>
       </c>
-      <c r="C54">
+      <c r="C54" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55">
+      <c r="A55" t="n">
         <v>34</v>
       </c>
       <c r="B55" t="s">
         <v>12</v>
       </c>
-      <c r="C55">
+      <c r="C55" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56">
+      <c r="A56" t="n">
         <v>35</v>
       </c>
       <c r="B56" t="s">
         <v>10</v>
       </c>
-      <c r="C56">
+      <c r="C56" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57">
+      <c r="A57" t="n">
         <v>35</v>
       </c>
       <c r="B57" t="s">
         <v>6</v>
       </c>
-      <c r="C57">
+      <c r="C57" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58">
+      <c r="A58" t="n">
         <v>35</v>
       </c>
       <c r="B58" t="s">
         <v>12</v>
       </c>
-      <c r="C58">
+      <c r="C58" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59">
+      <c r="A59" t="n">
         <v>36</v>
       </c>
       <c r="B59" t="s">
         <v>13</v>
       </c>
-      <c r="C59">
+      <c r="C59" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60">
+      <c r="A60" t="n">
         <v>36</v>
       </c>
       <c r="B60" t="s">
         <v>4</v>
       </c>
-      <c r="C60">
+      <c r="C60" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61">
+      <c r="A61" t="n">
         <v>36</v>
       </c>
       <c r="B61" t="s">
         <v>4</v>
       </c>
-      <c r="C61">
+      <c r="C61" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62">
+      <c r="A62" t="n">
         <v>36</v>
       </c>
       <c r="B62" t="s">
         <v>7</v>
       </c>
-      <c r="C62">
+      <c r="C62" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63">
+      <c r="A63" t="n">
         <v>36</v>
       </c>
       <c r="B63" t="s">
         <v>10</v>
       </c>
-      <c r="C63">
+      <c r="C63" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64">
+      <c r="A64" t="n">
         <v>36</v>
       </c>
       <c r="B64" t="s">
         <v>9</v>
       </c>
-      <c r="C64">
+      <c r="C64" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65">
+      <c r="A65" t="n">
         <v>37</v>
       </c>
       <c r="B65" t="s">
         <v>8</v>
       </c>
-      <c r="C65">
+      <c r="C65" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66">
+      <c r="A66" t="n">
         <v>37</v>
       </c>
       <c r="B66" t="s">
         <v>4</v>
       </c>
-      <c r="C66">
+      <c r="C66" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67">
+      <c r="A67" t="n">
         <v>37</v>
       </c>
       <c r="B67" t="s">
         <v>4</v>
       </c>
-      <c r="C67">
+      <c r="C67" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68">
+      <c r="A68" t="n">
         <v>37</v>
       </c>
       <c r="B68" t="s">
         <v>6</v>
       </c>
-      <c r="C68">
+      <c r="C68" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69">
+      <c r="A69" t="n">
         <v>37</v>
       </c>
       <c r="B69" t="s">
         <v>11</v>
       </c>
-      <c r="C69">
+      <c r="C69" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70">
+      <c r="A70" t="n">
         <v>38</v>
       </c>
       <c r="B70" t="s">
         <v>4</v>
       </c>
-      <c r="C70">
+      <c r="C70" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71">
+      <c r="A71" t="n">
         <v>38</v>
       </c>
       <c r="B71" t="s">
         <v>4</v>
       </c>
-      <c r="C71">
+      <c r="C71" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72">
+      <c r="A72" t="n">
         <v>38</v>
       </c>
       <c r="B72" t="s">
         <v>4</v>
       </c>
-      <c r="C72">
+      <c r="C72" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73">
+      <c r="A73" t="n">
         <v>38</v>
       </c>
       <c r="B73" t="s">
         <v>4</v>
       </c>
-      <c r="C73">
+      <c r="C73" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74">
+      <c r="A74" t="n">
         <v>38</v>
       </c>
       <c r="B74" t="s">
         <v>4</v>
       </c>
-      <c r="C74">
+      <c r="C74" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75">
+      <c r="A75" t="n">
         <v>38</v>
       </c>
       <c r="B75" t="s">
         <v>4</v>
       </c>
-      <c r="C75">
+      <c r="C75" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76">
+      <c r="A76" t="n">
         <v>38</v>
       </c>
       <c r="B76" t="s">
         <v>4</v>
       </c>
-      <c r="C76">
+      <c r="C76" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77">
+      <c r="A77" t="n">
         <v>38</v>
       </c>
       <c r="B77" t="s">
         <v>10</v>
       </c>
-      <c r="C77">
+      <c r="C77" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78">
+      <c r="A78" t="n">
         <v>38</v>
       </c>
       <c r="B78" t="s">
         <v>6</v>
       </c>
-      <c r="C78">
+      <c r="C78" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79">
+      <c r="A79" t="n">
         <v>39</v>
       </c>
       <c r="B79" t="s">
         <v>4</v>
       </c>
-      <c r="C79">
+      <c r="C79" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80">
+      <c r="A80" t="n">
         <v>39</v>
       </c>
       <c r="B80" t="s">
         <v>4</v>
       </c>
-      <c r="C80">
+      <c r="C80" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81">
+      <c r="A81" t="n">
         <v>39</v>
       </c>
       <c r="B81" t="s">
         <v>4</v>
       </c>
-      <c r="C81">
+      <c r="C81" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82">
+      <c r="A82" t="n">
         <v>39</v>
       </c>
       <c r="B82" t="s">
         <v>4</v>
       </c>
-      <c r="C82">
+      <c r="C82" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83">
+      <c r="A83" t="n">
         <v>39</v>
       </c>
       <c r="B83" t="s">
         <v>4</v>
       </c>
-      <c r="C83">
+      <c r="C83" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84">
+      <c r="A84" t="n">
         <v>39</v>
       </c>
       <c r="B84" t="s">
         <v>4</v>
       </c>
-      <c r="C84">
+      <c r="C84" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85">
+      <c r="A85" t="n">
         <v>39</v>
       </c>
       <c r="B85" t="s">
         <v>4</v>
       </c>
-      <c r="C85">
+      <c r="C85" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86">
+      <c r="A86" t="n">
         <v>39</v>
       </c>
       <c r="B86" t="s">
         <v>4</v>
       </c>
-      <c r="C86">
+      <c r="C86" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87">
+      <c r="A87" t="n">
         <v>40</v>
       </c>
       <c r="B87" t="s">
         <v>4</v>
       </c>
-      <c r="C87">
+      <c r="C87" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88">
+      <c r="A88" t="n">
         <v>40</v>
       </c>
       <c r="B88" t="s">
         <v>4</v>
       </c>
-      <c r="C88">
+      <c r="C88" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89">
+      <c r="A89" t="n">
         <v>40</v>
       </c>
       <c r="B89" t="s">
         <v>4</v>
       </c>
-      <c r="C89">
+      <c r="C89" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90">
+      <c r="A90" t="n">
         <v>40</v>
       </c>
       <c r="B90" t="s">
         <v>7</v>
       </c>
-      <c r="C90">
+      <c r="C90" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91">
+      <c r="A91" t="n">
         <v>40</v>
       </c>
       <c r="B91" t="s">
         <v>6</v>
       </c>
-      <c r="C91">
+      <c r="C91" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92">
+      <c r="A92" t="n">
         <v>40</v>
       </c>
       <c r="B92" t="s">
         <v>12</v>
       </c>
-      <c r="C92">
+      <c r="C92" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93">
+      <c r="A93" t="n">
         <v>40</v>
       </c>
       <c r="B93" t="s">
         <v>12</v>
       </c>
-      <c r="C93">
+      <c r="C93" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94">
+      <c r="A94" t="n">
         <v>40</v>
       </c>
       <c r="B94" t="s">
         <v>12</v>
       </c>
-      <c r="C94">
+      <c r="C94" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95">
+      <c r="A95" t="n">
         <v>41</v>
       </c>
       <c r="B95" t="s">
         <v>14</v>
       </c>
-      <c r="C95">
+      <c r="C95" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96">
+      <c r="A96" t="n">
         <v>41</v>
       </c>
       <c r="B96" t="s">
         <v>4</v>
       </c>
-      <c r="C96">
+      <c r="C96" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97">
+      <c r="A97" t="n">
         <v>41</v>
       </c>
       <c r="B97" t="s">
         <v>4</v>
       </c>
-      <c r="C97">
+      <c r="C97" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98">
+      <c r="A98" t="n">
         <v>41</v>
       </c>
       <c r="B98" t="s">
         <v>4</v>
       </c>
-      <c r="C98">
+      <c r="C98" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99">
+      <c r="A99" t="n">
         <v>41</v>
       </c>
       <c r="B99" t="s">
         <v>10</v>
       </c>
-      <c r="C99">
+      <c r="C99" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100">
+      <c r="A100" t="n">
         <v>41</v>
       </c>
       <c r="B100" t="s">
         <v>9</v>
       </c>
-      <c r="C100">
+      <c r="C100" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101">
+      <c r="A101" t="n">
         <v>41</v>
       </c>
       <c r="B101" t="s">
         <v>11</v>
       </c>
-      <c r="C101">
+      <c r="C101" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102">
+      <c r="A102" t="n">
         <v>42</v>
       </c>
       <c r="B102" t="s">
         <v>4</v>
       </c>
-      <c r="C102">
+      <c r="C102" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103">
+      <c r="A103" t="n">
         <v>42</v>
       </c>
       <c r="B103" t="s">
         <v>11</v>
       </c>
-      <c r="C103">
+      <c r="C103" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104">
+      <c r="A104" t="n">
         <v>43</v>
       </c>
       <c r="B104" t="s">
         <v>4</v>
       </c>
-      <c r="C104">
+      <c r="C104" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105">
+      <c r="A105" t="n">
         <v>43</v>
       </c>
       <c r="B105" t="s">
         <v>4</v>
       </c>
-      <c r="C105">
+      <c r="C105" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106">
+      <c r="A106" t="n">
         <v>43</v>
       </c>
       <c r="B106" t="s">
         <v>4</v>
       </c>
-      <c r="C106">
+      <c r="C106" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107">
+      <c r="A107" t="n">
         <v>43</v>
       </c>
       <c r="B107" t="s">
         <v>4</v>
       </c>
-      <c r="C107">
+      <c r="C107" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108">
+      <c r="A108" t="n">
         <v>43</v>
       </c>
       <c r="B108" t="s">
         <v>7</v>
       </c>
-      <c r="C108">
+      <c r="C108" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109">
+      <c r="A109" t="n">
         <v>43</v>
       </c>
       <c r="B109" t="s">
         <v>10</v>
       </c>
-      <c r="C109">
+      <c r="C109" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110">
+      <c r="A110" t="n">
         <v>43</v>
       </c>
       <c r="B110" t="s">
         <v>6</v>
       </c>
-      <c r="C110">
+      <c r="C110" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111">
+      <c r="A111" t="n">
         <v>43</v>
       </c>
       <c r="B111" t="s">
         <v>6</v>
       </c>
-      <c r="C111">
+      <c r="C111" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112">
+      <c r="A112" t="n">
         <v>43</v>
       </c>
       <c r="B112" t="s">
         <v>6</v>
       </c>
-      <c r="C112">
+      <c r="C112" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113">
+      <c r="A113" t="n">
         <v>43</v>
       </c>
       <c r="B113" t="s">
         <v>11</v>
       </c>
-      <c r="C113">
+      <c r="C113" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114">
+      <c r="A114" t="n">
         <v>44</v>
       </c>
       <c r="B114" t="s">
         <v>4</v>
       </c>
-      <c r="C114">
+      <c r="C114" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115">
+      <c r="A115" t="n">
         <v>44</v>
       </c>
       <c r="B115" t="s">
         <v>6</v>
       </c>
-      <c r="C115">
+      <c r="C115" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116">
+      <c r="A116" t="n">
         <v>45</v>
       </c>
       <c r="B116" t="s">
         <v>8</v>
       </c>
-      <c r="C116">
+      <c r="C116" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117">
+      <c r="A117" t="n">
         <v>45</v>
       </c>
       <c r="B117" t="s">
         <v>8</v>
       </c>
-      <c r="C117">
+      <c r="C117" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118">
+      <c r="A118" t="n">
         <v>45</v>
       </c>
       <c r="B118" t="s">
         <v>4</v>
       </c>
-      <c r="C118">
+      <c r="C118" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119">
+      <c r="A119" t="n">
         <v>45</v>
       </c>
       <c r="B119" t="s">
         <v>4</v>
       </c>
-      <c r="C119">
+      <c r="C119" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120">
+      <c r="A120" t="n">
         <v>45</v>
       </c>
       <c r="B120" t="s">
         <v>4</v>
       </c>
-      <c r="C120">
+      <c r="C120" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121">
+      <c r="A121" t="n">
         <v>45</v>
       </c>
       <c r="B121" t="s">
         <v>4</v>
       </c>
-      <c r="C121">
+      <c r="C121" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122">
+      <c r="A122" t="n">
         <v>45</v>
       </c>
       <c r="B122" t="s">
         <v>4</v>
       </c>
-      <c r="C122">
+      <c r="C122" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123">
+      <c r="A123" t="n">
         <v>45</v>
       </c>
       <c r="B123" t="s">
         <v>4</v>
       </c>
-      <c r="C123">
+      <c r="C123" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124">
+      <c r="A124" t="n">
         <v>45</v>
       </c>
       <c r="B124" t="s">
         <v>4</v>
       </c>
-      <c r="C124">
+      <c r="C124" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125">
+      <c r="A125" t="n">
         <v>45</v>
       </c>
       <c r="B125" t="s">
         <v>10</v>
       </c>
-      <c r="C125">
+      <c r="C125" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126">
+      <c r="A126" t="n">
         <v>45</v>
       </c>
       <c r="B126" t="s">
         <v>10</v>
       </c>
-      <c r="C126">
+      <c r="C126" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127">
+      <c r="A127" t="n">
         <v>46</v>
       </c>
       <c r="B127" t="s">
         <v>14</v>
       </c>
-      <c r="C127">
+      <c r="C127" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128">
+      <c r="A128" t="n">
         <v>46</v>
       </c>
       <c r="B128" t="s">
         <v>4</v>
       </c>
-      <c r="C128">
+      <c r="C128" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129">
+      <c r="A129" t="n">
         <v>46</v>
       </c>
       <c r="B129" t="s">
         <v>4</v>
       </c>
-      <c r="C129">
+      <c r="C129" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130">
+      <c r="A130" t="n">
         <v>46</v>
       </c>
       <c r="B130" t="s">
         <v>4</v>
       </c>
-      <c r="C130">
+      <c r="C130" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131">
+      <c r="A131" t="n">
         <v>46</v>
       </c>
       <c r="B131" t="s">
         <v>7</v>
       </c>
-      <c r="C131">
+      <c r="C131" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132">
+      <c r="A132" t="n">
         <v>46</v>
       </c>
       <c r="B132" t="s">
         <v>7</v>
       </c>
-      <c r="C132">
+      <c r="C132" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133">
+      <c r="A133" t="n">
         <v>46</v>
       </c>
       <c r="B133" t="s">
         <v>7</v>
       </c>
-      <c r="C133">
+      <c r="C133" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134">
+      <c r="A134" t="n">
         <v>46</v>
       </c>
       <c r="B134" t="s">
         <v>10</v>
       </c>
-      <c r="C134">
+      <c r="C134" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135">
+      <c r="A135" t="n">
         <v>46</v>
       </c>
       <c r="B135" t="s">
         <v>5</v>
       </c>
-      <c r="C135">
+      <c r="C135" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136">
+      <c r="A136" t="n">
         <v>46</v>
       </c>
       <c r="B136" t="s">
         <v>6</v>
       </c>
-      <c r="C136">
+      <c r="C136" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137">
+      <c r="A137" t="n">
         <v>46</v>
       </c>
       <c r="B137" t="s">
         <v>12</v>
       </c>
-      <c r="C137">
+      <c r="C137" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138">
+      <c r="A138" t="n">
         <v>47</v>
       </c>
       <c r="B138" t="s">
         <v>4</v>
       </c>
-      <c r="C138">
+      <c r="C138" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139">
+      <c r="A139" t="n">
         <v>47</v>
       </c>
       <c r="B139" t="s">
         <v>4</v>
       </c>
-      <c r="C139">
+      <c r="C139" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140">
+      <c r="A140" t="n">
         <v>47</v>
       </c>
       <c r="B140" t="s">
         <v>4</v>
       </c>
-      <c r="C140">
+      <c r="C140" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141">
+      <c r="A141" t="n">
         <v>47</v>
       </c>
       <c r="B141" t="s">
         <v>4</v>
       </c>
-      <c r="C141">
+      <c r="C141" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142">
+      <c r="A142" t="n">
         <v>47</v>
       </c>
       <c r="B142" t="s">
         <v>4</v>
       </c>
-      <c r="C142">
+      <c r="C142" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:3">
-      <c r="A143">
+      <c r="A143" t="n">
         <v>47</v>
       </c>
       <c r="B143" t="s">
         <v>4</v>
       </c>
-      <c r="C143">
+      <c r="C143" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:3">
-      <c r="A144">
+      <c r="A144" t="n">
         <v>47</v>
       </c>
       <c r="B144" t="s">
         <v>4</v>
       </c>
-      <c r="C144">
+      <c r="C144" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145">
+      <c r="A145" t="n">
         <v>47</v>
       </c>
       <c r="B145" t="s">
         <v>7</v>
       </c>
-      <c r="C145">
+      <c r="C145" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:3">
-      <c r="A146">
+      <c r="A146" t="n">
         <v>47</v>
       </c>
       <c r="B146" t="s">
         <v>10</v>
       </c>
-      <c r="C146">
+      <c r="C146" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:3">
-      <c r="A147">
+      <c r="A147" t="n">
         <v>47</v>
       </c>
       <c r="B147" t="s">
         <v>6</v>
       </c>
-      <c r="C147">
+      <c r="C147" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:3">
-      <c r="A148">
+      <c r="A148" t="n">
         <v>48</v>
       </c>
       <c r="B148" t="s">
         <v>8</v>
       </c>
-      <c r="C148">
+      <c r="C148" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:3">
-      <c r="A149">
+      <c r="A149" t="n">
         <v>48</v>
       </c>
       <c r="B149" t="s">
         <v>4</v>
       </c>
-      <c r="C149">
+      <c r="C149" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:3">
-      <c r="A150">
+      <c r="A150" t="n">
         <v>48</v>
       </c>
       <c r="B150" t="s">
         <v>4</v>
       </c>
-      <c r="C150">
+      <c r="C150" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:3">
-      <c r="A151">
+      <c r="A151" t="n">
         <v>48</v>
       </c>
       <c r="B151" t="s">
         <v>4</v>
       </c>
-      <c r="C151">
+      <c r="C151" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:3">
-      <c r="A152">
+      <c r="A152" t="n">
         <v>48</v>
       </c>
       <c r="B152" t="s">
         <v>4</v>
       </c>
-      <c r="C152">
+      <c r="C152" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:3">
-      <c r="A153">
+      <c r="A153" t="n">
         <v>48</v>
       </c>
       <c r="B153" t="s">
         <v>4</v>
       </c>
-      <c r="C153">
+      <c r="C153" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:3">
-      <c r="A154">
+      <c r="A154" t="n">
         <v>48</v>
       </c>
       <c r="B154" t="s">
         <v>10</v>
       </c>
-      <c r="C154">
+      <c r="C154" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:3">
-      <c r="A155">
+      <c r="A155" t="n">
         <v>49</v>
       </c>
       <c r="B155" t="s">
         <v>4</v>
       </c>
-      <c r="C155">
+      <c r="C155" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:3">
-      <c r="A156">
+      <c r="A156" t="n">
         <v>49</v>
       </c>
       <c r="B156" t="s">
         <v>4</v>
       </c>
-      <c r="C156">
+      <c r="C156" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:3">
-      <c r="A157">
+      <c r="A157" t="n">
         <v>49</v>
       </c>
       <c r="B157" t="s">
         <v>4</v>
       </c>
-      <c r="C157">
+      <c r="C157" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:3">
-      <c r="A158">
+      <c r="A158" t="n">
         <v>49</v>
       </c>
       <c r="B158" t="s">
         <v>4</v>
       </c>
-      <c r="C158">
+      <c r="C158" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:3">
-      <c r="A159">
+      <c r="A159" t="n">
         <v>49</v>
       </c>
       <c r="B159" t="s">
         <v>7</v>
       </c>
-      <c r="C159">
+      <c r="C159" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:3">
-      <c r="A160">
+      <c r="A160" t="n">
         <v>49</v>
       </c>
       <c r="B160" t="s">
         <v>7</v>
       </c>
-      <c r="C160">
+      <c r="C160" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:3">
-      <c r="A161">
+      <c r="A161" t="n">
         <v>50</v>
       </c>
       <c r="B161" t="s">
         <v>8</v>
       </c>
-      <c r="C161">
+      <c r="C161" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:3">
-      <c r="A162">
+      <c r="A162" t="n">
         <v>50</v>
       </c>
       <c r="B162" t="s">
         <v>4</v>
       </c>
-      <c r="C162">
+      <c r="C162" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:3">
-      <c r="A163">
+      <c r="A163" t="n">
         <v>50</v>
       </c>
       <c r="B163" t="s">
         <v>4</v>
       </c>
-      <c r="C163">
+      <c r="C163" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:3">
-      <c r="A164">
+      <c r="A164" t="n">
         <v>50</v>
       </c>
       <c r="B164" t="s">
         <v>15</v>
       </c>
-      <c r="C164">
+      <c r="C164" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:3">
-      <c r="A165">
+      <c r="A165" t="n">
         <v>50</v>
       </c>
       <c r="B165" t="s">
         <v>5</v>
       </c>
-      <c r="C165">
+      <c r="C165" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:3">
-      <c r="A166">
+      <c r="A166" t="n">
         <v>50</v>
       </c>
       <c r="B166" t="s">
         <v>6</v>
       </c>
-      <c r="C166">
+      <c r="C166" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:3">
-      <c r="A167">
+      <c r="A167" t="n">
         <v>50</v>
       </c>
       <c r="B167" t="s">
         <v>6</v>
       </c>
-      <c r="C167">
+      <c r="C167" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:3">
-      <c r="A168">
+      <c r="A168" t="n">
         <v>50</v>
       </c>
       <c r="B168" t="s">
         <v>11</v>
       </c>
-      <c r="C168">
+      <c r="C168" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:3">
-      <c r="A169">
+      <c r="A169" t="n">
         <v>51</v>
       </c>
       <c r="B169" t="s">
         <v>13</v>
       </c>
-      <c r="C169">
+      <c r="C169" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:3">
-      <c r="A170">
+      <c r="A170" t="n">
         <v>51</v>
       </c>
       <c r="B170" t="s">
         <v>8</v>
       </c>
-      <c r="C170">
+      <c r="C170" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:3">
-      <c r="A171">
+      <c r="A171" t="n">
         <v>51</v>
       </c>
       <c r="B171" t="s">
         <v>4</v>
       </c>
-      <c r="C171">
+      <c r="C171" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:3">
-      <c r="A172">
+      <c r="A172" t="n">
         <v>51</v>
       </c>
       <c r="B172" t="s">
         <v>4</v>
       </c>
-      <c r="C172">
+      <c r="C172" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:3">
-      <c r="A173">
+      <c r="A173" t="n">
         <v>51</v>
       </c>
       <c r="B173" t="s">
         <v>4</v>
       </c>
-      <c r="C173">
+      <c r="C173" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:3">
-      <c r="A174">
+      <c r="A174" t="n">
         <v>51</v>
       </c>
       <c r="B174" t="s">
         <v>4</v>
       </c>
-      <c r="C174">
+      <c r="C174" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:3">
-      <c r="A175">
+      <c r="A175" t="n">
         <v>51</v>
       </c>
       <c r="B175" t="s">
         <v>4</v>
       </c>
-      <c r="C175">
+      <c r="C175" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:3">
-      <c r="A176">
+      <c r="A176" t="n">
         <v>51</v>
       </c>
       <c r="B176" t="s">
         <v>4</v>
       </c>
-      <c r="C176">
+      <c r="C176" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:3">
-      <c r="A177">
+      <c r="A177" t="n">
         <v>51</v>
       </c>
       <c r="B177" t="s">
         <v>4</v>
       </c>
-      <c r="C177">
+      <c r="C177" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:3">
-      <c r="A178">
+      <c r="A178" t="n">
         <v>51</v>
       </c>
       <c r="B178" t="s">
         <v>4</v>
       </c>
-      <c r="C178">
+      <c r="C178" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:3">
-      <c r="A179">
+      <c r="A179" t="n">
         <v>51</v>
       </c>
       <c r="B179" t="s">
         <v>4</v>
       </c>
-      <c r="C179">
+      <c r="C179" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:3">
-      <c r="A180">
+      <c r="A180" t="n">
         <v>51</v>
       </c>
       <c r="B180" t="s">
         <v>5</v>
       </c>
-      <c r="C180">
+      <c r="C180" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:3">
-      <c r="A181">
+      <c r="A181" t="n">
         <v>51</v>
       </c>
       <c r="B181" t="s">
         <v>6</v>
       </c>
-      <c r="C181">
+      <c r="C181" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:3">
-      <c r="A182">
+      <c r="A182" t="n">
         <v>52</v>
       </c>
       <c r="B182" t="s">
         <v>4</v>
       </c>
-      <c r="C182">
+      <c r="C182" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:3">
-      <c r="A183">
+      <c r="A183" t="n">
         <v>52</v>
       </c>
       <c r="B183" t="s">
         <v>4</v>
       </c>
-      <c r="C183">
+      <c r="C183" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:3">
-      <c r="A184">
+      <c r="A184" t="n">
         <v>52</v>
       </c>
       <c r="B184" t="s">
         <v>4</v>
       </c>
-      <c r="C184">
+      <c r="C184" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:3">
-      <c r="A185">
+      <c r="A185" t="n">
         <v>52</v>
       </c>
       <c r="B185" t="s">
         <v>4</v>
       </c>
-      <c r="C185">
+      <c r="C185" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:3">
-      <c r="A186">
+      <c r="A186" t="n">
         <v>52</v>
       </c>
       <c r="B186" t="s">
         <v>4</v>
       </c>
-      <c r="C186">
+      <c r="C186" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:3">
-      <c r="A187">
+      <c r="A187" t="n">
         <v>52</v>
       </c>
       <c r="B187" t="s">
         <v>4</v>
       </c>
-      <c r="C187">
+      <c r="C187" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:3">
-      <c r="A188">
+      <c r="A188" t="n">
         <v>52</v>
       </c>
       <c r="B188" t="s">
         <v>4</v>
       </c>
-      <c r="C188">
+      <c r="C188" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:3">
-      <c r="A189">
+      <c r="A189" t="n">
         <v>52</v>
       </c>
       <c r="B189" t="s">
         <v>12</v>
       </c>
-      <c r="C189">
+      <c r="C189" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:3">
-      <c r="A190">
+      <c r="A190" t="n">
         <v>53</v>
       </c>
       <c r="B190" t="s">
         <v>14</v>
       </c>
-      <c r="C190">
+      <c r="C190" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:3">
-      <c r="A191">
+      <c r="A191" t="n">
         <v>53</v>
       </c>
       <c r="B191" t="s">
         <v>8</v>
       </c>
-      <c r="C191">
+      <c r="C191" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:3">
-      <c r="A192">
+      <c r="A192" t="n">
         <v>53</v>
       </c>
       <c r="B192" t="s">
         <v>4</v>
       </c>
-      <c r="C192">
+      <c r="C192" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:3">
-      <c r="A193">
+      <c r="A193" t="n">
         <v>53</v>
       </c>
       <c r="B193" t="s">
         <v>10</v>
       </c>
-      <c r="C193">
+      <c r="C193" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:3">
-      <c r="A194">
+      <c r="A194" t="n">
         <v>53</v>
       </c>
       <c r="B194" t="s">
         <v>12</v>
       </c>
-      <c r="C194">
+      <c r="C194" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:3">
-      <c r="A195">
+      <c r="A195" t="n">
         <v>53</v>
       </c>
       <c r="B195" t="s">
         <v>11</v>
       </c>
-      <c r="C195">
+      <c r="C195" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:3">
-      <c r="A196">
+      <c r="A196" t="n">
         <v>54</v>
       </c>
       <c r="B196" t="s">
         <v>16</v>
       </c>
-      <c r="C196">
+      <c r="C196" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:3">
-      <c r="A197">
+      <c r="A197" t="n">
         <v>54</v>
       </c>
       <c r="B197" t="s">
         <v>13</v>
       </c>
-      <c r="C197">
+      <c r="C197" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:3">
-      <c r="A198">
+      <c r="A198" t="n">
         <v>54</v>
       </c>
       <c r="B198" t="s">
         <v>8</v>
       </c>
-      <c r="C198">
+      <c r="C198" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:3">
-      <c r="A199">
+      <c r="A199" t="n">
         <v>54</v>
       </c>
       <c r="B199" t="s">
         <v>4</v>
       </c>
-      <c r="C199">
+      <c r="C199" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:3">
-      <c r="A200">
+      <c r="A200" t="n">
         <v>54</v>
       </c>
       <c r="B200" t="s">
         <v>4</v>
       </c>
-      <c r="C200">
+      <c r="C200" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:3">
-      <c r="A201">
+      <c r="A201" t="n">
         <v>54</v>
       </c>
       <c r="B201" t="s">
         <v>4</v>
       </c>
-      <c r="C201">
+      <c r="C201" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:3">
-      <c r="A202">
+      <c r="A202" t="n">
         <v>54</v>
       </c>
       <c r="B202" t="s">
         <v>6</v>
       </c>
-      <c r="C202">
+      <c r="C202" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:3">
-      <c r="A203">
+      <c r="A203" t="n">
         <v>55</v>
       </c>
       <c r="B203" t="s">
         <v>13</v>
       </c>
-      <c r="C203">
+      <c r="C203" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:3">
-      <c r="A204">
+      <c r="A204" t="n">
         <v>55</v>
       </c>
       <c r="B204" t="s">
         <v>4</v>
       </c>
-      <c r="C204">
+      <c r="C204" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:3">
-      <c r="A205">
+      <c r="A205" t="n">
         <v>55</v>
       </c>
       <c r="B205" t="s">
         <v>4</v>
       </c>
-      <c r="C205">
+      <c r="C205" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:3">
-      <c r="A206">
+      <c r="A206" t="n">
         <v>55</v>
       </c>
       <c r="B206" t="s">
         <v>7</v>
       </c>
-      <c r="C206">
+      <c r="C206" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:3">
-      <c r="A207">
+      <c r="A207" t="n">
         <v>55</v>
       </c>
       <c r="B207" t="s">
         <v>5</v>
       </c>
-      <c r="C207">
+      <c r="C207" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:3">
-      <c r="A208">
+      <c r="A208" t="n">
         <v>55</v>
       </c>
       <c r="B208" t="s">
         <v>6</v>
       </c>
-      <c r="C208">
+      <c r="C208" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:3">
-      <c r="A209">
+      <c r="A209" t="n">
         <v>55</v>
       </c>
       <c r="B209" t="s">
         <v>6</v>
       </c>
-      <c r="C209">
+      <c r="C209" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:3">
-      <c r="A210">
+      <c r="A210" t="n">
         <v>55</v>
       </c>
       <c r="B210" t="s">
         <v>11</v>
       </c>
-      <c r="C210">
+      <c r="C210" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:3">
-      <c r="A211">
+      <c r="A211" t="n">
         <v>56</v>
       </c>
       <c r="B211" t="s">
         <v>4</v>
       </c>
-      <c r="C211">
+      <c r="C211" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:3">
-      <c r="A212">
+      <c r="A212" t="n">
         <v>56</v>
       </c>
       <c r="B212" t="s">
         <v>4</v>
       </c>
-      <c r="C212">
+      <c r="C212" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:3">
-      <c r="A213">
+      <c r="A213" t="n">
         <v>56</v>
       </c>
       <c r="B213" t="s">
         <v>4</v>
       </c>
-      <c r="C213">
+      <c r="C213" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:3">
-      <c r="A214">
+      <c r="A214" t="n">
         <v>56</v>
       </c>
       <c r="B214" t="s">
         <v>4</v>
       </c>
-      <c r="C214">
+      <c r="C214" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:3">
-      <c r="A215">
+      <c r="A215" t="n">
         <v>56</v>
       </c>
       <c r="B215" t="s">
         <v>7</v>
       </c>
-      <c r="C215">
+      <c r="C215" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:3">
-      <c r="A216">
+      <c r="A216" t="n">
         <v>56</v>
       </c>
       <c r="B216" t="s">
         <v>6</v>
       </c>
-      <c r="C216">
+      <c r="C216" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:3">
-      <c r="A217">
+      <c r="A217" t="n">
         <v>56</v>
       </c>
       <c r="B217" t="s">
         <v>6</v>
       </c>
-      <c r="C217">
+      <c r="C217" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:3">
-      <c r="A218">
+      <c r="A218" t="n">
         <v>56</v>
       </c>
       <c r="B218" t="s">
         <v>6</v>
       </c>
-      <c r="C218">
+      <c r="C218" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:3">
-      <c r="A219">
+      <c r="A219" t="n">
         <v>56</v>
       </c>
       <c r="B219" t="s">
         <v>11</v>
       </c>
-      <c r="C219">
+      <c r="C219" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:3">
-      <c r="A220">
+      <c r="A220" t="n">
         <v>57</v>
       </c>
       <c r="B220" t="s">
         <v>8</v>
       </c>
-      <c r="C220">
+      <c r="C220" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:3">
-      <c r="A221">
+      <c r="A221" t="n">
         <v>57</v>
       </c>
       <c r="B221" t="s">
         <v>4</v>
       </c>
-      <c r="C221">
+      <c r="C221" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:3">
-      <c r="A222">
+      <c r="A222" t="n">
         <v>57</v>
       </c>
       <c r="B222" t="s">
         <v>4</v>
       </c>
-      <c r="C222">
+      <c r="C222" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:3">
-      <c r="A223">
+      <c r="A223" t="n">
         <v>57</v>
       </c>
       <c r="B223" t="s">
         <v>4</v>
       </c>
-      <c r="C223">
+      <c r="C223" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:3">
-      <c r="A224">
+      <c r="A224" t="n">
         <v>57</v>
       </c>
       <c r="B224" t="s">
         <v>4</v>
       </c>
-      <c r="C224">
+      <c r="C224" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:3">
-      <c r="A225">
+      <c r="A225" t="n">
         <v>57</v>
       </c>
       <c r="B225" t="s">
         <v>4</v>
       </c>
-      <c r="C225">
+      <c r="C225" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:3">
-      <c r="A226">
+      <c r="A226" t="n">
         <v>57</v>
       </c>
       <c r="B226" t="s">
         <v>5</v>
       </c>
-      <c r="C226">
+      <c r="C226" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:3">
-      <c r="A227">
+      <c r="A227" t="n">
         <v>57</v>
       </c>
       <c r="B227" t="s">
         <v>9</v>
       </c>
-      <c r="C227">
+      <c r="C227" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:3">
-      <c r="A228">
+      <c r="A228" t="n">
         <v>57</v>
       </c>
       <c r="B228" t="s">
         <v>12</v>
       </c>
-      <c r="C228">
+      <c r="C228" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:3">
-      <c r="A229">
+      <c r="A229" t="n">
         <v>58</v>
       </c>
       <c r="B229" t="s">
         <v>14</v>
       </c>
-      <c r="C229">
+      <c r="C229" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:3">
-      <c r="A230">
+      <c r="A230" t="n">
         <v>58</v>
       </c>
       <c r="B230" t="s">
         <v>8</v>
       </c>
-      <c r="C230">
+      <c r="C230" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:3">
-      <c r="A231">
+      <c r="A231" t="n">
         <v>58</v>
       </c>
       <c r="B231" t="s">
         <v>8</v>
       </c>
-      <c r="C231">
+      <c r="C231" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:3">
-      <c r="A232">
+      <c r="A232" t="n">
         <v>58</v>
       </c>
       <c r="B232" t="s">
         <v>4</v>
       </c>
-      <c r="C232">
+      <c r="C232" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:3">
-      <c r="A233">
+      <c r="A233" t="n">
         <v>58</v>
       </c>
       <c r="B233" t="s">
         <v>4</v>
       </c>
-      <c r="C233">
+      <c r="C233" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:3">
-      <c r="A234">
+      <c r="A234" t="n">
         <v>58</v>
       </c>
       <c r="B234" t="s">
         <v>4</v>
       </c>
-      <c r="C234">
+      <c r="C234" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:3">
-      <c r="A235">
+      <c r="A235" t="n">
         <v>58</v>
       </c>
       <c r="B235" t="s">
         <v>4</v>
       </c>
-      <c r="C235">
+      <c r="C235" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:3">
-      <c r="A236">
+      <c r="A236" t="n">
         <v>58</v>
       </c>
       <c r="B236" t="s">
         <v>7</v>
       </c>
-      <c r="C236">
+      <c r="C236" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:3">
-      <c r="A237">
+      <c r="A237" t="n">
         <v>58</v>
       </c>
       <c r="B237" t="s">
         <v>11</v>
       </c>
-      <c r="C237">
+      <c r="C237" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:3">
-      <c r="A238">
+      <c r="A238" t="n">
         <v>59</v>
       </c>
       <c r="B238" t="s">
         <v>13</v>
       </c>
-      <c r="C238">
+      <c r="C238" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:3">
-      <c r="A239">
+      <c r="A239" t="n">
         <v>59</v>
       </c>
       <c r="B239" t="s">
         <v>4</v>
       </c>
-      <c r="C239">
+      <c r="C239" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:3">
-      <c r="A240">
+      <c r="A240" t="n">
         <v>59</v>
       </c>
       <c r="B240" t="s">
         <v>4</v>
       </c>
-      <c r="C240">
+      <c r="C240" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:3">
-      <c r="A241">
+      <c r="A241" t="n">
         <v>59</v>
       </c>
       <c r="B241" t="s">
         <v>4</v>
       </c>
-      <c r="C241">
+      <c r="C241" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:3">
-      <c r="A242">
+      <c r="A242" t="n">
         <v>59</v>
       </c>
       <c r="B242" t="s">
         <v>4</v>
       </c>
-      <c r="C242">
+      <c r="C242" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:3">
-      <c r="A243">
+      <c r="A243" t="n">
         <v>59</v>
       </c>
       <c r="B243" t="s">
         <v>4</v>
       </c>
-      <c r="C243">
+      <c r="C243" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:3">
-      <c r="A244">
+      <c r="A244" t="n">
         <v>59</v>
       </c>
       <c r="B244" t="s">
         <v>4</v>
       </c>
-      <c r="C244">
+      <c r="C244" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:3">
-      <c r="A245">
+      <c r="A245" t="n">
         <v>59</v>
       </c>
       <c r="B245" t="s">
         <v>6</v>
       </c>
-      <c r="C245">
+      <c r="C245" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:3">
-      <c r="A246">
+      <c r="A246" t="n">
         <v>59</v>
       </c>
       <c r="B246" t="s">
         <v>6</v>
       </c>
-      <c r="C246">
+      <c r="C246" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:3">
-      <c r="A247">
+      <c r="A247" t="n">
         <v>59</v>
       </c>
       <c r="B247" t="s">
         <v>6</v>
       </c>
-      <c r="C247">
+      <c r="C247" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:3">
-      <c r="A248">
+      <c r="A248" t="n">
         <v>59</v>
       </c>
       <c r="B248" t="s">
         <v>12</v>
       </c>
-      <c r="C248">
+      <c r="C248" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:3">
-      <c r="A249">
+      <c r="A249" t="n">
         <v>60</v>
       </c>
       <c r="B249" t="s">
         <v>13</v>
       </c>
-      <c r="C249">
+      <c r="C249" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:3">
-      <c r="A250">
+      <c r="A250" t="n">
         <v>60</v>
       </c>
       <c r="B250" t="s">
         <v>13</v>
       </c>
-      <c r="C250">
+      <c r="C250" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:3">
-      <c r="A251">
+      <c r="A251" t="n">
         <v>60</v>
       </c>
       <c r="B251" t="s">
         <v>4</v>
       </c>
-      <c r="C251">
+      <c r="C251" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:3">
-      <c r="A252">
+      <c r="A252" t="n">
         <v>60</v>
       </c>
       <c r="B252" t="s">
         <v>4</v>
       </c>
-      <c r="C252">
+      <c r="C252" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:3">
-      <c r="A253">
+      <c r="A253" t="n">
         <v>60</v>
       </c>
       <c r="B253" t="s">
         <v>4</v>
       </c>
-      <c r="C253">
+      <c r="C253" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:3">
-      <c r="A254">
+      <c r="A254" t="n">
         <v>60</v>
       </c>
       <c r="B254" t="s">
         <v>4</v>
       </c>
-      <c r="C254">
+      <c r="C254" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:3">
-      <c r="A255">
+      <c r="A255" t="n">
         <v>60</v>
       </c>
       <c r="B255" t="s">
         <v>6</v>
       </c>
-      <c r="C255">
+      <c r="C255" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:3">
-      <c r="A256">
+      <c r="A256" t="n">
         <v>61</v>
       </c>
       <c r="B256" t="s">
         <v>8</v>
       </c>
-      <c r="C256">
+      <c r="C256" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:3">
-      <c r="A257">
+      <c r="A257" t="n">
         <v>61</v>
       </c>
       <c r="B257" t="s">
         <v>4</v>
       </c>
-      <c r="C257">
+      <c r="C257" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:3">
-      <c r="A258">
+      <c r="A258" t="n">
         <v>61</v>
       </c>
       <c r="B258" t="s">
         <v>4</v>
       </c>
-      <c r="C258">
+      <c r="C258" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:3">
-      <c r="A259">
+      <c r="A259" t="n">
         <v>61</v>
       </c>
       <c r="B259" t="s">
         <v>4</v>
       </c>
-      <c r="C259">
+      <c r="C259" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:3">
-      <c r="A260">
+      <c r="A260" t="n">
         <v>61</v>
       </c>
       <c r="B260" t="s">
         <v>4</v>
       </c>
-      <c r="C260">
+      <c r="C260" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:3">
-      <c r="A261">
+      <c r="A261" t="n">
         <v>61</v>
       </c>
       <c r="B261" t="s">
         <v>4</v>
       </c>
-      <c r="C261">
+      <c r="C261" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:3">
-      <c r="A262">
+      <c r="A262" t="n">
         <v>61</v>
       </c>
       <c r="B262" t="s">
         <v>4</v>
       </c>
-      <c r="C262">
+      <c r="C262" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:3">
-      <c r="A263">
+      <c r="A263" t="n">
         <v>61</v>
       </c>
       <c r="B263" t="s">
         <v>4</v>
       </c>
-      <c r="C263">
+      <c r="C263" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:3">
-      <c r="A264">
+      <c r="A264" t="n">
         <v>61</v>
       </c>
       <c r="B264" t="s">
         <v>4</v>
       </c>
-      <c r="C264">
+      <c r="C264" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:3">
-      <c r="A265">
+      <c r="A265" t="n">
         <v>61</v>
       </c>
       <c r="B265" t="s">
         <v>15</v>
       </c>
-      <c r="C265">
+      <c r="C265" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:3">
-      <c r="A266">
+      <c r="A266" t="n">
         <v>61</v>
       </c>
       <c r="B266" t="s">
         <v>15</v>
       </c>
-      <c r="C266">
+      <c r="C266" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:3">
-      <c r="A267">
+      <c r="A267" t="n">
         <v>61</v>
       </c>
       <c r="B267" t="s">
         <v>10</v>
       </c>
-      <c r="C267">
+      <c r="C267" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:3">
-      <c r="A268">
+      <c r="A268" t="n">
         <v>61</v>
       </c>
       <c r="B268" t="s">
         <v>10</v>
       </c>
-      <c r="C268">
+      <c r="C268" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:3">
-      <c r="A269">
+      <c r="A269" t="n">
         <v>62</v>
       </c>
       <c r="B269" t="s">
         <v>4</v>
       </c>
-      <c r="C269">
+      <c r="C269" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:3">
-      <c r="A270">
+      <c r="A270" t="n">
         <v>62</v>
       </c>
       <c r="B270" t="s">
         <v>4</v>
       </c>
-      <c r="C270">
+      <c r="C270" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:3">
-      <c r="A271">
+      <c r="A271" t="n">
         <v>62</v>
       </c>
       <c r="B271" t="s">
         <v>4</v>
       </c>
-      <c r="C271">
+      <c r="C271" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:3">
-      <c r="A272">
+      <c r="A272" t="n">
         <v>62</v>
       </c>
       <c r="B272" t="s">
         <v>4</v>
       </c>
-      <c r="C272">
+      <c r="C272" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:3">
-      <c r="A273">
+      <c r="A273" t="n">
         <v>62</v>
       </c>
       <c r="B273" t="s">
         <v>4</v>
       </c>
-      <c r="C273">
+      <c r="C273" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:3">
-      <c r="A274">
+      <c r="A274" t="n">
         <v>62</v>
       </c>
       <c r="B274" t="s">
         <v>4</v>
       </c>
-      <c r="C274">
+      <c r="C274" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:3">
-      <c r="A275">
+      <c r="A275" t="n">
         <v>62</v>
       </c>
       <c r="B275" t="s">
         <v>4</v>
       </c>
-      <c r="C275">
+      <c r="C275" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:3">
-      <c r="A276">
+      <c r="A276" t="n">
         <v>62</v>
       </c>
       <c r="B276" t="s">
         <v>4</v>
       </c>
-      <c r="C276">
+      <c r="C276" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:3">
-      <c r="A277">
+      <c r="A277" t="n">
         <v>62</v>
       </c>
       <c r="B277" t="s">
         <v>4</v>
       </c>
-      <c r="C277">
+      <c r="C277" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:3">
-      <c r="A278">
+      <c r="A278" t="n">
         <v>62</v>
       </c>
       <c r="B278" t="s">
         <v>4</v>
       </c>
-      <c r="C278">
+      <c r="C278" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:3">
-      <c r="A279">
+      <c r="A279" t="n">
         <v>62</v>
       </c>
       <c r="B279" t="s">
         <v>4</v>
       </c>
-      <c r="C279">
+      <c r="C279" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:3">
-      <c r="A280">
+      <c r="A280" t="n">
         <v>62</v>
       </c>
       <c r="B280" t="s">
         <v>4</v>
       </c>
-      <c r="C280">
+      <c r="C280" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:3">
-      <c r="A281">
+      <c r="A281" t="n">
         <v>62</v>
       </c>
       <c r="B281" t="s">
         <v>4</v>
       </c>
-      <c r="C281">
+      <c r="C281" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:3">
-      <c r="A282">
+      <c r="A282" t="n">
         <v>63</v>
       </c>
       <c r="B282" t="s">
         <v>4</v>
       </c>
-      <c r="C282">
+      <c r="C282" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:3">
-      <c r="A283">
+      <c r="A283" t="n">
         <v>63</v>
       </c>
       <c r="B283" t="s">
         <v>4</v>
       </c>
-      <c r="C283">
+      <c r="C283" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:3">
-      <c r="A284">
+      <c r="A284" t="n">
         <v>63</v>
       </c>
       <c r="B284" t="s">
         <v>4</v>
       </c>
-      <c r="C284">
+      <c r="C284" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:3">
-      <c r="A285">
+      <c r="A285" t="n">
         <v>63</v>
       </c>
       <c r="B285" t="s">
         <v>4</v>
       </c>
-      <c r="C285">
+      <c r="C285" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:3">
-      <c r="A286">
+      <c r="A286" t="n">
         <v>63</v>
       </c>
       <c r="B286" t="s">
         <v>4</v>
       </c>
-      <c r="C286">
+      <c r="C286" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:3">
-      <c r="A287">
+      <c r="A287" t="n">
         <v>63</v>
       </c>
       <c r="B287" t="s">
         <v>4</v>
       </c>
-      <c r="C287">
+      <c r="C287" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:3">
-      <c r="A288">
+      <c r="A288" t="n">
         <v>63</v>
       </c>
       <c r="B288" t="s">
         <v>4</v>
       </c>
-      <c r="C288">
+      <c r="C288" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:3">
-      <c r="A289">
+      <c r="A289" t="n">
         <v>63</v>
       </c>
       <c r="B289" t="s">
         <v>4</v>
       </c>
-      <c r="C289">
+      <c r="C289" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:3">
-      <c r="A290">
+      <c r="A290" t="n">
         <v>63</v>
       </c>
       <c r="B290" t="s">
         <v>10</v>
       </c>
-      <c r="C290">
+      <c r="C290" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:3">
-      <c r="A291">
+      <c r="A291" t="n">
         <v>63</v>
       </c>
       <c r="B291" t="s">
         <v>5</v>
       </c>
-      <c r="C291">
+      <c r="C291" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:3">
-      <c r="A292">
+      <c r="A292" t="n">
         <v>64</v>
       </c>
       <c r="B292" t="s">
         <v>8</v>
       </c>
-      <c r="C292">
+      <c r="C292" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:3">
-      <c r="A293">
+      <c r="A293" t="n">
         <v>64</v>
       </c>
       <c r="B293" t="s">
         <v>8</v>
       </c>
-      <c r="C293">
+      <c r="C293" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:3">
-      <c r="A294">
+      <c r="A294" t="n">
         <v>64</v>
       </c>
       <c r="B294" t="s">
         <v>4</v>
       </c>
-      <c r="C294">
+      <c r="C294" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:3">
-      <c r="A295">
+      <c r="A295" t="n">
         <v>64</v>
       </c>
       <c r="B295" t="s">
         <v>4</v>
       </c>
-      <c r="C295">
+      <c r="C295" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:3">
-      <c r="A296">
+      <c r="A296" t="n">
         <v>64</v>
       </c>
       <c r="B296" t="s">
         <v>4</v>
       </c>
-      <c r="C296">
+      <c r="C296" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:3">
-      <c r="A297">
+      <c r="A297" t="n">
         <v>65</v>
       </c>
       <c r="B297" t="s">
         <v>14</v>
       </c>
-      <c r="C297">
+      <c r="C297" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:3">
-      <c r="A298">
+      <c r="A298" t="n">
         <v>65</v>
       </c>
       <c r="B298" t="s">
         <v>8</v>
       </c>
-      <c r="C298">
+      <c r="C298" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:3">
-      <c r="A299">
+      <c r="A299" t="n">
         <v>65</v>
       </c>
       <c r="B299" t="s">
         <v>4</v>
       </c>
-      <c r="C299">
+      <c r="C299" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:3">
-      <c r="A300">
+      <c r="A300" t="n">
         <v>65</v>
       </c>
       <c r="B300" t="s">
         <v>4</v>
       </c>
-      <c r="C300">
+      <c r="C300" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:3">
-      <c r="A301">
+      <c r="A301" t="n">
         <v>65</v>
       </c>
       <c r="B301" t="s">
         <v>4</v>
       </c>
-      <c r="C301">
+      <c r="C301" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:3">
-      <c r="A302">
+      <c r="A302" t="n">
         <v>65</v>
       </c>
       <c r="B302" t="s">
         <v>4</v>
       </c>
-      <c r="C302">
+      <c r="C302" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:3">
-      <c r="A303">
+      <c r="A303" t="n">
         <v>66</v>
       </c>
       <c r="B303" t="s">
         <v>14</v>
       </c>
-      <c r="C303">
+      <c r="C303" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:3">
-      <c r="A304">
+      <c r="A304" t="n">
         <v>66</v>
       </c>
       <c r="B304" t="s">
         <v>8</v>
       </c>
-      <c r="C304">
+      <c r="C304" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:3">
-      <c r="A305">
+      <c r="A305" t="n">
         <v>66</v>
       </c>
       <c r="B305" t="s">
         <v>4</v>
       </c>
-      <c r="C305">
+      <c r="C305" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:3">
-      <c r="A306">
+      <c r="A306" t="n">
         <v>66</v>
       </c>
       <c r="B306" t="s">
         <v>4</v>
       </c>
-      <c r="C306">
+      <c r="C306" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:3">
-      <c r="A307">
+      <c r="A307" t="n">
         <v>67</v>
       </c>
       <c r="B307" t="s">
         <v>13</v>
       </c>
-      <c r="C307">
+      <c r="C307" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:3">
-      <c r="A308">
+      <c r="A308" t="n">
         <v>67</v>
       </c>
       <c r="B308" t="s">
         <v>13</v>
       </c>
-      <c r="C308">
+      <c r="C308" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:3">
-      <c r="A309">
+      <c r="A309" t="n">
         <v>67</v>
       </c>
       <c r="B309" t="s">
         <v>8</v>
       </c>
-      <c r="C309">
+      <c r="C309" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:3">
-      <c r="A310">
+      <c r="A310" t="n">
         <v>67</v>
       </c>
       <c r="B310" t="s">
         <v>4</v>
       </c>
-      <c r="C310">
+      <c r="C310" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:3">
-      <c r="A311">
+      <c r="A311" t="n">
         <v>67</v>
       </c>
       <c r="B311" t="s">
         <v>4</v>
       </c>
-      <c r="C311">
+      <c r="C311" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:3">
-      <c r="A312">
+      <c r="A312" t="n">
         <v>67</v>
       </c>
       <c r="B312" t="s">
         <v>4</v>
       </c>
-      <c r="C312">
+      <c r="C312" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:3">
-      <c r="A313">
+      <c r="A313" t="n">
         <v>67</v>
       </c>
       <c r="B313" t="s">
         <v>4</v>
       </c>
-      <c r="C313">
+      <c r="C313" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:3">
-      <c r="A314">
+      <c r="A314" t="n">
         <v>67</v>
       </c>
       <c r="B314" t="s">
         <v>4</v>
       </c>
-      <c r="C314">
+      <c r="C314" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:3">
-      <c r="A315">
+      <c r="A315" t="n">
         <v>67</v>
       </c>
       <c r="B315" t="s">
         <v>10</v>
       </c>
-      <c r="C315">
+      <c r="C315" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:3">
-      <c r="A316">
+      <c r="A316" t="n">
         <v>68</v>
       </c>
       <c r="B316" t="s">
         <v>13</v>
       </c>
-      <c r="C316">
+      <c r="C316" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:3">
-      <c r="A317">
+      <c r="A317" t="n">
         <v>68</v>
       </c>
       <c r="B317" t="s">
         <v>8</v>
       </c>
-      <c r="C317">
+      <c r="C317" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:3">
-      <c r="A318">
+      <c r="A318" t="n">
         <v>68</v>
       </c>
       <c r="B318" t="s">
         <v>4</v>
       </c>
-      <c r="C318">
+      <c r="C318" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:3">
-      <c r="A319">
+      <c r="A319" t="n">
         <v>68</v>
       </c>
       <c r="B319" t="s">
         <v>4</v>
       </c>
-      <c r="C319">
+      <c r="C319" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:3">
-      <c r="A320">
+      <c r="A320" t="n">
         <v>68</v>
       </c>
       <c r="B320" t="s">
         <v>4</v>
       </c>
-      <c r="C320">
+      <c r="C320" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:3">
-      <c r="A321">
+      <c r="A321" t="n">
         <v>68</v>
       </c>
       <c r="B321" t="s">
         <v>4</v>
       </c>
-      <c r="C321">
+      <c r="C321" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:3">
-      <c r="A322">
+      <c r="A322" t="n">
         <v>68</v>
       </c>
       <c r="B322" t="s">
         <v>4</v>
       </c>
-      <c r="C322">
+      <c r="C322" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:3">
-      <c r="A323">
+      <c r="A323" t="n">
         <v>68</v>
       </c>
       <c r="B323" t="s">
         <v>4</v>
       </c>
-      <c r="C323">
+      <c r="C323" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:3">
-      <c r="A324">
+      <c r="A324" t="n">
         <v>68</v>
       </c>
       <c r="B324" t="s">
         <v>7</v>
       </c>
-      <c r="C324">
+      <c r="C324" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:3">
-      <c r="A325">
+      <c r="A325" t="n">
         <v>68</v>
       </c>
       <c r="B325" t="s">
         <v>9</v>
       </c>
-      <c r="C325">
+      <c r="C325" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:3">
-      <c r="A326">
+      <c r="A326" t="n">
         <v>69</v>
       </c>
       <c r="B326" t="s">
         <v>17</v>
       </c>
-      <c r="C326">
+      <c r="C326" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:3">
-      <c r="A327">
+      <c r="A327" t="n">
         <v>69</v>
       </c>
       <c r="B327" t="s">
         <v>8</v>
       </c>
-      <c r="C327">
+      <c r="C327" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:3">
-      <c r="A328">
+      <c r="A328" t="n">
         <v>69</v>
       </c>
       <c r="B328" t="s">
         <v>4</v>
       </c>
-      <c r="C328">
+      <c r="C328" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:3">
-      <c r="A329">
+      <c r="A329" t="n">
         <v>69</v>
       </c>
       <c r="B329" t="s">
         <v>4</v>
       </c>
-      <c r="C329">
+      <c r="C329" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:3">
-      <c r="A330">
+      <c r="A330" t="n">
         <v>69</v>
       </c>
       <c r="B330" t="s">
         <v>4</v>
       </c>
-      <c r="C330">
+      <c r="C330" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:3">
-      <c r="A331">
+      <c r="A331" t="n">
         <v>69</v>
       </c>
       <c r="B331" t="s">
         <v>6</v>
       </c>
-      <c r="C331">
+      <c r="C331" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:3">
-      <c r="A332">
+      <c r="A332" t="n">
         <v>69</v>
       </c>
       <c r="B332" t="s">
         <v>11</v>
       </c>
-      <c r="C332">
+      <c r="C332" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:3">
-      <c r="A333">
+      <c r="A333" t="n">
         <v>69</v>
       </c>
       <c r="B333" t="s">
         <v>11</v>
       </c>
-      <c r="C333">
+      <c r="C333" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:3">
-      <c r="A334">
+      <c r="A334" t="n">
         <v>70</v>
       </c>
       <c r="B334" t="s">
         <v>14</v>
       </c>
-      <c r="C334">
+      <c r="C334" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:3">
-      <c r="A335">
+      <c r="A335" t="n">
         <v>70</v>
       </c>
       <c r="B335" t="s">
         <v>8</v>
       </c>
-      <c r="C335">
+      <c r="C335" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:3">
-      <c r="A336">
+      <c r="A336" t="n">
         <v>70</v>
       </c>
       <c r="B336" t="s">
         <v>4</v>
       </c>
-      <c r="C336">
+      <c r="C336" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:3">
-      <c r="A337">
+      <c r="A337" t="n">
         <v>70</v>
       </c>
       <c r="B337" t="s">
         <v>4</v>
       </c>
-      <c r="C337">
+      <c r="C337" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:3">
-      <c r="A338">
+      <c r="A338" t="n">
         <v>70</v>
       </c>
       <c r="B338" t="s">
         <v>4</v>
       </c>
-      <c r="C338">
+      <c r="C338" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:3">
-      <c r="A339">
+      <c r="A339" t="n">
         <v>70</v>
       </c>
       <c r="B339" t="s">
         <v>4</v>
       </c>
-      <c r="C339">
+      <c r="C339" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:3">
-      <c r="A340">
+      <c r="A340" t="n">
         <v>70</v>
       </c>
       <c r="B340" t="s">
         <v>4</v>
       </c>
-      <c r="C340">
+      <c r="C340" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:3">
-      <c r="A341">
+      <c r="A341" t="n">
         <v>70</v>
       </c>
       <c r="B341" t="s">
         <v>4</v>
       </c>
-      <c r="C341">
+      <c r="C341" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:3">
-      <c r="A342">
+      <c r="A342" t="n">
         <v>70</v>
       </c>
       <c r="B342" t="s">
         <v>15</v>
       </c>
-      <c r="C342">
+      <c r="C342" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:3">
-      <c r="A343">
+      <c r="A343" t="n">
         <v>70</v>
       </c>
       <c r="B343" t="s">
         <v>6</v>
       </c>
-      <c r="C343">
+      <c r="C343" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:3">
-      <c r="A344">
+      <c r="A344" t="n">
         <v>70</v>
       </c>
       <c r="B344" t="s">
         <v>11</v>
       </c>
-      <c r="C344">
+      <c r="C344" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:3">
-      <c r="A345">
+      <c r="A345" t="n">
         <v>71</v>
       </c>
       <c r="B345" t="s">
         <v>8</v>
       </c>
-      <c r="C345">
+      <c r="C345" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:3">
-      <c r="A346">
+      <c r="A346" t="n">
         <v>71</v>
       </c>
       <c r="B346" t="s">
         <v>8</v>
       </c>
-      <c r="C346">
+      <c r="C346" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:3">
-      <c r="A347">
+      <c r="A347" t="n">
         <v>71</v>
       </c>
       <c r="B347" t="s">
         <v>4</v>
       </c>
-      <c r="C347">
+      <c r="C347" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:3">
-      <c r="A348">
+      <c r="A348" t="n">
         <v>71</v>
       </c>
       <c r="B348" t="s">
         <v>4</v>
       </c>
-      <c r="C348">
+      <c r="C348" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:3">
-      <c r="A349">
+      <c r="A349" t="n">
         <v>71</v>
       </c>
       <c r="B349" t="s">
         <v>4</v>
       </c>
-      <c r="C349">
+      <c r="C349" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:3">
-      <c r="A350">
+      <c r="A350" t="n">
         <v>71</v>
       </c>
       <c r="B350" t="s">
         <v>4</v>
       </c>
-      <c r="C350">
+      <c r="C350" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:3">
-      <c r="A351">
+      <c r="A351" t="n">
         <v>71</v>
       </c>
       <c r="B351" t="s">
         <v>4</v>
       </c>
-      <c r="C351">
+      <c r="C351" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:3">
-      <c r="A352">
+      <c r="A352" t="n">
         <v>71</v>
       </c>
       <c r="B352" t="s">
         <v>4</v>
       </c>
-      <c r="C352">
+      <c r="C352" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:3">
-      <c r="A353">
+      <c r="A353" t="n">
         <v>71</v>
       </c>
       <c r="B353" t="s">
         <v>10</v>
       </c>
-      <c r="C353">
+      <c r="C353" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:3">
-      <c r="A354">
+      <c r="A354" t="n">
         <v>71</v>
       </c>
       <c r="B354" t="s">
         <v>5</v>
       </c>
-      <c r="C354">
+      <c r="C354" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:3">
-      <c r="A355">
+      <c r="A355" t="n">
         <v>71</v>
       </c>
       <c r="B355" t="s">
         <v>6</v>
       </c>
-      <c r="C355">
+      <c r="C355" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="356" spans="1:3">
-      <c r="A356">
+      <c r="A356" t="n">
         <v>71</v>
       </c>
       <c r="B356" t="s">
         <v>12</v>
       </c>
-      <c r="C356">
+      <c r="C356" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:3">
-      <c r="A357">
+      <c r="A357" t="n">
         <v>72</v>
       </c>
       <c r="B357" t="s">
         <v>13</v>
       </c>
-      <c r="C357">
+      <c r="C357" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="358" spans="1:3">
-      <c r="A358">
+      <c r="A358" t="n">
         <v>72</v>
       </c>
       <c r="B358" t="s">
         <v>8</v>
       </c>
-      <c r="C358">
+      <c r="C358" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:3">
-      <c r="A359">
+      <c r="A359" t="n">
         <v>72</v>
       </c>
       <c r="B359" t="s">
         <v>4</v>
       </c>
-      <c r="C359">
+      <c r="C359" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:3">
-      <c r="A360">
+      <c r="A360" t="n">
         <v>72</v>
       </c>
       <c r="B360" t="s">
         <v>4</v>
       </c>
-      <c r="C360">
+      <c r="C360" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:3">
-      <c r="A361">
+      <c r="A361" t="n">
         <v>72</v>
       </c>
       <c r="B361" t="s">
         <v>4</v>
       </c>
-      <c r="C361">
+      <c r="C361" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:3">
-      <c r="A362">
+      <c r="A362" t="n">
         <v>72</v>
       </c>
       <c r="B362" t="s">
         <v>4</v>
       </c>
-      <c r="C362">
+      <c r="C362" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:3">
-      <c r="A363">
+      <c r="A363" t="n">
         <v>72</v>
       </c>
       <c r="B363" t="s">
         <v>4</v>
       </c>
-      <c r="C363">
+      <c r="C363" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:3">
-      <c r="A364">
+      <c r="A364" t="n">
         <v>72</v>
       </c>
       <c r="B364" t="s">
         <v>4</v>
       </c>
-      <c r="C364">
+      <c r="C364" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:3">
-      <c r="A365">
+      <c r="A365" t="n">
         <v>72</v>
       </c>
       <c r="B365" t="s">
         <v>9</v>
       </c>
-      <c r="C365">
+      <c r="C365" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:3">
-      <c r="A366">
+      <c r="A366" t="n">
         <v>72</v>
       </c>
       <c r="B366" t="s">
         <v>11</v>
       </c>
-      <c r="C366">
+      <c r="C366" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:3">
-      <c r="A367">
+      <c r="A367" t="n">
         <v>72</v>
       </c>
       <c r="B367" t="s">
         <v>11</v>
       </c>
-      <c r="C367">
+      <c r="C367" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:3">
-      <c r="A368">
+      <c r="A368" t="n">
         <v>73</v>
       </c>
-      <c r="B368">
+      <c r="B368" t="s">
+        <v>8</v>
+      </c>
+      <c r="C368" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
+      <c r="A369" t="n">
+        <v>73</v>
+      </c>
+      <c r="B369" t="s">
+        <v>4</v>
+      </c>
+      <c r="C369" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
+      <c r="A370" t="n">
+        <v>73</v>
+      </c>
+      <c r="B370" t="s">
+        <v>4</v>
+      </c>
+      <c r="C370" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
+      <c r="A371" t="n">
+        <v>73</v>
+      </c>
+      <c r="B371" t="s">
+        <v>4</v>
+      </c>
+      <c r="C371" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
+      <c r="A372" t="n">
+        <v>73</v>
+      </c>
+      <c r="B372" t="s">
+        <v>4</v>
+      </c>
+      <c r="C372" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
+      <c r="A373" t="n">
+        <v>73</v>
+      </c>
+      <c r="B373" t="s">
+        <v>4</v>
+      </c>
+      <c r="C373" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
+      <c r="A374" t="n">
+        <v>73</v>
+      </c>
+      <c r="B374" t="s">
+        <v>4</v>
+      </c>
+      <c r="C374" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
+      <c r="A375" t="n">
+        <v>73</v>
+      </c>
+      <c r="B375" t="s">
+        <v>4</v>
+      </c>
+      <c r="C375" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
+      <c r="A376" t="n">
+        <v>73</v>
+      </c>
+      <c r="B376" t="s">
+        <v>4</v>
+      </c>
+      <c r="C376" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
+      <c r="A377" t="n">
+        <v>73</v>
+      </c>
+      <c r="B377" t="s">
+        <v>4</v>
+      </c>
+      <c r="C377" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
+      <c r="A378" t="n">
+        <v>73</v>
+      </c>
+      <c r="B378" t="s">
+        <v>4</v>
+      </c>
+      <c r="C378" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
+      <c r="A379" t="n">
+        <v>73</v>
+      </c>
+      <c r="B379" t="s">
+        <v>4</v>
+      </c>
+      <c r="C379" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3">
+      <c r="A380" t="n">
+        <v>73</v>
+      </c>
+      <c r="B380" t="s">
+        <v>4</v>
+      </c>
+      <c r="C380" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
+      <c r="A381" t="n">
+        <v>73</v>
+      </c>
+      <c r="B381" t="s">
+        <v>4</v>
+      </c>
+      <c r="C381" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
+      <c r="A382" t="n">
+        <v>73</v>
+      </c>
+      <c r="B382" t="s">
+        <v>4</v>
+      </c>
+      <c r="C382" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
+      <c r="A383" t="n">
+        <v>73</v>
+      </c>
+      <c r="B383" t="s">
+        <v>4</v>
+      </c>
+      <c r="C383" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3">
+      <c r="A384" t="n">
+        <v>73</v>
+      </c>
+      <c r="B384" t="s">
+        <v>4</v>
+      </c>
+      <c r="C384" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
+      <c r="A385" t="n">
+        <v>73</v>
+      </c>
+      <c r="B385" t="s">
+        <v>4</v>
+      </c>
+      <c r="C385" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3">
+      <c r="A386" t="n">
+        <v>73</v>
+      </c>
+      <c r="B386" t="s">
+        <v>4</v>
+      </c>
+      <c r="C386" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3">
+      <c r="A387" t="n">
+        <v>73</v>
+      </c>
+      <c r="B387" t="s">
+        <v>10</v>
+      </c>
+      <c r="C387" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3">
+      <c r="A388" t="n">
+        <v>73</v>
+      </c>
+      <c r="B388" t="s">
+        <v>6</v>
+      </c>
+      <c r="C388" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3">
+      <c r="A389" t="n">
+        <v>73</v>
+      </c>
+      <c r="B389" t="s">
+        <v>6</v>
+      </c>
+      <c r="C389" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3">
+      <c r="A390" t="n">
+        <v>74</v>
+      </c>
+      <c r="B390" t="s">
+        <v>8</v>
+      </c>
+      <c r="C390" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3">
+      <c r="A391" t="n">
+        <v>74</v>
+      </c>
+      <c r="B391" t="s">
+        <v>4</v>
+      </c>
+      <c r="C391" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3">
+      <c r="A392" t="n">
+        <v>74</v>
+      </c>
+      <c r="B392" t="s">
+        <v>4</v>
+      </c>
+      <c r="C392" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3">
+      <c r="A393" t="n">
+        <v>74</v>
+      </c>
+      <c r="B393" t="s">
+        <v>4</v>
+      </c>
+      <c r="C393" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3">
+      <c r="A394" t="n">
+        <v>74</v>
+      </c>
+      <c r="B394" t="s">
+        <v>4</v>
+      </c>
+      <c r="C394" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3">
+      <c r="A395" t="n">
+        <v>74</v>
+      </c>
+      <c r="B395" t="s">
+        <v>4</v>
+      </c>
+      <c r="C395" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3">
+      <c r="A396" t="n">
+        <v>74</v>
+      </c>
+      <c r="B396" t="s">
+        <v>4</v>
+      </c>
+      <c r="C396" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3">
+      <c r="A397" t="n">
+        <v>74</v>
+      </c>
+      <c r="B397" t="s">
+        <v>4</v>
+      </c>
+      <c r="C397" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3">
+      <c r="A398" t="n">
+        <v>74</v>
+      </c>
+      <c r="B398" t="s">
+        <v>4</v>
+      </c>
+      <c r="C398" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3">
+      <c r="A399" t="n">
+        <v>74</v>
+      </c>
+      <c r="B399" t="s">
+        <v>4</v>
+      </c>
+      <c r="C399" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3">
+      <c r="A400" t="n">
+        <v>74</v>
+      </c>
+      <c r="B400" t="s">
+        <v>4</v>
+      </c>
+      <c r="C400" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3">
+      <c r="A401" t="n">
+        <v>74</v>
+      </c>
+      <c r="B401" t="s">
+        <v>4</v>
+      </c>
+      <c r="C401" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3">
+      <c r="A402" t="n">
+        <v>74</v>
+      </c>
+      <c r="B402" t="s">
+        <v>4</v>
+      </c>
+      <c r="C402" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3">
+      <c r="A403" t="n">
+        <v>74</v>
+      </c>
+      <c r="B403" t="s">
+        <v>4</v>
+      </c>
+      <c r="C403" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3">
+      <c r="A404" t="n">
+        <v>74</v>
+      </c>
+      <c r="B404" t="s">
+        <v>4</v>
+      </c>
+      <c r="C404" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3">
+      <c r="A405" t="n">
+        <v>74</v>
+      </c>
+      <c r="B405" t="s">
+        <v>4</v>
+      </c>
+      <c r="C405" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3">
+      <c r="A406" t="n">
+        <v>74</v>
+      </c>
+      <c r="B406" t="s">
+        <v>4</v>
+      </c>
+      <c r="C406" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3">
+      <c r="A407" t="n">
+        <v>74</v>
+      </c>
+      <c r="B407" t="s">
+        <v>4</v>
+      </c>
+      <c r="C407" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3">
+      <c r="A408" t="n">
+        <v>74</v>
+      </c>
+      <c r="B408" t="s">
+        <v>4</v>
+      </c>
+      <c r="C408" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3">
+      <c r="A409" t="n">
+        <v>74</v>
+      </c>
+      <c r="B409" t="s">
+        <v>10</v>
+      </c>
+      <c r="C409" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3">
+      <c r="A410" t="n">
+        <v>74</v>
+      </c>
+      <c r="B410" t="s">
+        <v>6</v>
+      </c>
+      <c r="C410" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3">
+      <c r="A411" t="n">
+        <v>74</v>
+      </c>
+      <c r="B411" t="s">
+        <v>6</v>
+      </c>
+      <c r="C411" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3">
+      <c r="A412" t="n">
+        <v>75</v>
+      </c>
+      <c r="B412" t="n">
+        <v>1</v>
+      </c>
+      <c r="C412" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3">
+      <c r="A413" t="n">
+        <v>75</v>
+      </c>
+      <c r="B413" t="n">
+        <v>2</v>
+      </c>
+      <c r="C413" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3">
+      <c r="A414" t="n">
+        <v>75</v>
+      </c>
+      <c r="B414" t="n">
         <v>5</v>
       </c>
-      <c r="C368">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3">
-      <c r="A369">
-        <v>73</v>
-      </c>
-      <c r="B369" t="s">
-        <v>4</v>
-      </c>
-      <c r="C369">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="370" spans="1:3">
-      <c r="A370">
-        <v>73</v>
-      </c>
-      <c r="B370" t="s">
-        <v>4</v>
-      </c>
-      <c r="C370">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="371" spans="1:3">
-      <c r="A371">
-        <v>73</v>
-      </c>
-      <c r="B371" t="s">
-        <v>4</v>
-      </c>
-      <c r="C371">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="372" spans="1:3">
-      <c r="A372">
-        <v>73</v>
-      </c>
-      <c r="B372" t="s">
-        <v>4</v>
-      </c>
-      <c r="C372">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3">
-      <c r="A373">
-        <v>73</v>
-      </c>
-      <c r="B373" t="s">
-        <v>4</v>
-      </c>
-      <c r="C373">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="374" spans="1:3">
-      <c r="A374">
-        <v>73</v>
-      </c>
-      <c r="B374" t="s">
-        <v>4</v>
-      </c>
-      <c r="C374">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="375" spans="1:3">
-      <c r="A375">
-        <v>73</v>
-      </c>
-      <c r="B375" t="s">
-        <v>4</v>
-      </c>
-      <c r="C375">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="376" spans="1:3">
-      <c r="A376">
-        <v>73</v>
-      </c>
-      <c r="B376" t="s">
-        <v>4</v>
-      </c>
-      <c r="C376">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="377" spans="1:3">
-      <c r="A377">
-        <v>73</v>
-      </c>
-      <c r="B377" t="s">
-        <v>4</v>
-      </c>
-      <c r="C377">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="378" spans="1:3">
-      <c r="A378">
-        <v>73</v>
-      </c>
-      <c r="B378" t="s">
-        <v>4</v>
-      </c>
-      <c r="C378">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="379" spans="1:3">
-      <c r="A379">
-        <v>73</v>
-      </c>
-      <c r="B379" t="s">
-        <v>4</v>
-      </c>
-      <c r="C379">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="380" spans="1:3">
-      <c r="A380">
-        <v>73</v>
-      </c>
-      <c r="B380" t="s">
-        <v>4</v>
-      </c>
-      <c r="C380">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="381" spans="1:3">
-      <c r="A381">
-        <v>73</v>
-      </c>
-      <c r="B381" t="s">
-        <v>4</v>
-      </c>
-      <c r="C381">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="382" spans="1:3">
-      <c r="A382">
-        <v>73</v>
-      </c>
-      <c r="B382" t="s">
-        <v>4</v>
-      </c>
-      <c r="C382">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="383" spans="1:3">
-      <c r="A383">
-        <v>73</v>
-      </c>
-      <c r="B383" t="s">
-        <v>4</v>
-      </c>
-      <c r="C383">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3">
-      <c r="A384">
-        <v>73</v>
-      </c>
-      <c r="B384" t="s">
-        <v>4</v>
-      </c>
-      <c r="C384">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="385" spans="1:3">
-      <c r="A385">
-        <v>73</v>
-      </c>
-      <c r="B385" t="s">
-        <v>4</v>
-      </c>
-      <c r="C385">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="386" spans="1:3">
-      <c r="A386">
-        <v>73</v>
-      </c>
-      <c r="B386" t="s">
-        <v>4</v>
-      </c>
-      <c r="C386">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="387" spans="1:3">
-      <c r="A387">
-        <v>73</v>
-      </c>
-      <c r="B387">
-        <v>16</v>
-      </c>
-      <c r="C387">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="388" spans="1:3">
-      <c r="A388">
-        <v>73</v>
-      </c>
-      <c r="B388">
+      <c r="C414" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3">
+      <c r="A415" t="n">
+        <v>75</v>
+      </c>
+      <c r="B415" t="n">
+        <v>5</v>
+      </c>
+      <c r="C415" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3">
+      <c r="A416" t="n">
+        <v>75</v>
+      </c>
+      <c r="B416" t="s">
+        <v>4</v>
+      </c>
+      <c r="C416" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3">
+      <c r="A417" t="n">
+        <v>75</v>
+      </c>
+      <c r="B417" t="s">
+        <v>4</v>
+      </c>
+      <c r="C417" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3">
+      <c r="A418" t="n">
+        <v>75</v>
+      </c>
+      <c r="B418" t="s">
+        <v>4</v>
+      </c>
+      <c r="C418" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3">
+      <c r="A419" t="n">
+        <v>75</v>
+      </c>
+      <c r="B419" t="s">
+        <v>4</v>
+      </c>
+      <c r="C419" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3">
+      <c r="A420" t="n">
+        <v>75</v>
+      </c>
+      <c r="B420" t="s">
+        <v>4</v>
+      </c>
+      <c r="C420" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3">
+      <c r="A421" t="n">
+        <v>75</v>
+      </c>
+      <c r="B421" t="s">
+        <v>4</v>
+      </c>
+      <c r="C421" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3">
+      <c r="A422" t="n">
+        <v>75</v>
+      </c>
+      <c r="B422" t="s">
+        <v>4</v>
+      </c>
+      <c r="C422" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3">
+      <c r="A423" t="n">
+        <v>75</v>
+      </c>
+      <c r="B423" t="s">
+        <v>4</v>
+      </c>
+      <c r="C423" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3">
+      <c r="A424" t="n">
+        <v>75</v>
+      </c>
+      <c r="B424" t="s">
+        <v>4</v>
+      </c>
+      <c r="C424" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3">
+      <c r="A425" t="n">
+        <v>75</v>
+      </c>
+      <c r="B425" t="s">
+        <v>4</v>
+      </c>
+      <c r="C425" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3">
+      <c r="A426" t="n">
+        <v>75</v>
+      </c>
+      <c r="B426" t="s">
+        <v>4</v>
+      </c>
+      <c r="C426" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3">
+      <c r="A427" t="n">
+        <v>75</v>
+      </c>
+      <c r="B427" t="s">
+        <v>4</v>
+      </c>
+      <c r="C427" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3">
+      <c r="A428" t="n">
+        <v>75</v>
+      </c>
+      <c r="B428" t="s">
+        <v>4</v>
+      </c>
+      <c r="C428" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3">
+      <c r="A429" t="n">
+        <v>75</v>
+      </c>
+      <c r="B429" t="s">
+        <v>4</v>
+      </c>
+      <c r="C429" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3">
+      <c r="A430" t="n">
+        <v>75</v>
+      </c>
+      <c r="B430" t="s">
+        <v>4</v>
+      </c>
+      <c r="C430" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3">
+      <c r="A431" t="n">
+        <v>75</v>
+      </c>
+      <c r="B431" t="s">
+        <v>4</v>
+      </c>
+      <c r="C431" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3">
+      <c r="A432" t="n">
+        <v>75</v>
+      </c>
+      <c r="B432" t="s">
+        <v>4</v>
+      </c>
+      <c r="C432" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3">
+      <c r="A433" t="n">
+        <v>75</v>
+      </c>
+      <c r="B433" t="s">
+        <v>4</v>
+      </c>
+      <c r="C433" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3">
+      <c r="A434" t="n">
+        <v>75</v>
+      </c>
+      <c r="B434" t="s">
+        <v>4</v>
+      </c>
+      <c r="C434" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3">
+      <c r="A435" t="n">
+        <v>75</v>
+      </c>
+      <c r="B435" t="n">
+        <v>6</v>
+      </c>
+      <c r="C435" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3">
+      <c r="A436" t="n">
+        <v>75</v>
+      </c>
+      <c r="B436" t="n">
         <v>9</v>
       </c>
-      <c r="C388">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="389" spans="1:3">
-      <c r="A389">
-        <v>73</v>
-      </c>
-      <c r="B389">
+      <c r="C436" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3">
+      <c r="A437" t="n">
+        <v>75</v>
+      </c>
+      <c r="B437" t="n">
         <v>9</v>
       </c>
-      <c r="C389">
+      <c r="C437" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>